--- a/R/ClusterResultPro.xlsx
+++ b/R/ClusterResultPro.xlsx
@@ -1,21 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhash\OneDrive\Documents\GitHub\IRHEIS\R\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E7BF6-FC12-4075-AA8B-9006C090B0F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$118</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>cluster3</t>
+  </si>
+  <si>
+    <t>MetrPrice</t>
+  </si>
+  <si>
+    <t>House_Share</t>
+  </si>
+  <si>
+    <t>FoodKCaloriesHH_Per</t>
+  </si>
+  <si>
+    <t>SampleSize</t>
+  </si>
+  <si>
+    <t>Engle</t>
+  </si>
+  <si>
+    <t>FPLine</t>
+  </si>
+  <si>
+    <t>PovertyLine</t>
+  </si>
+  <si>
+    <t>PovertyHCR</t>
+  </si>
+  <si>
+    <t>PovertyGap</t>
+  </si>
+  <si>
+    <t>PovertyDepth</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +113,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +199,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +251,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,76 +444,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.06640625" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" customWidth="1"/>
+    <col min="8" max="8" width="17.46484375" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="11" max="11" width="12.06640625" customWidth="1"/>
+    <col min="12" max="12" width="13.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>cluster3</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MetrPrice</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>House_Share</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>FoodKCaloriesHH_Per</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SampleSize</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Engle</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>FPLine</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PovertyLine</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PovertyHCR</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PovertyGap</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>PovertyDepth</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>90</v>
       </c>
@@ -427,37 +513,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>83483.09656085543</v>
+        <v>83483.096560855425</v>
       </c>
       <c r="D2">
-        <v>0.4436095601923961</v>
+        <v>0.44360956019239611</v>
       </c>
       <c r="E2">
-        <v>2287.62474677021</v>
+        <v>2287.6247467702101</v>
       </c>
       <c r="F2">
         <v>1089</v>
       </c>
       <c r="G2">
-        <v>0.1653176131860185</v>
+        <v>0.16531761318601851</v>
       </c>
       <c r="H2">
-        <v>461030.3321613022</v>
+        <v>466337.27854939387</v>
       </c>
       <c r="I2">
-        <v>2845351.454738953</v>
+        <v>2877783.900500169</v>
       </c>
       <c r="J2">
-        <v>0.1502007246124215</v>
+        <v>0.15551195074827701</v>
       </c>
       <c r="K2">
-        <v>0.1987761619913064</v>
+        <v>0.19907713330904581</v>
       </c>
       <c r="L2">
-        <v>0.07503065680900287</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>7.540375357754682E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>90</v>
       </c>
@@ -480,22 +566,22 @@
         <v>0.2191636534471903</v>
       </c>
       <c r="H3">
-        <v>457411.0640876786</v>
+        <v>470241.31007650378</v>
       </c>
       <c r="I3">
-        <v>2442300.062232265</v>
+        <v>2486429.4994793911</v>
       </c>
       <c r="J3">
-        <v>0.2395219234986799</v>
+        <v>0.25480770753961501</v>
       </c>
       <c r="K3">
-        <v>0.1675784270312918</v>
+        <v>0.1680343084769102</v>
       </c>
       <c r="L3">
-        <v>0.06332702811448157</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>6.364355937665675E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>90</v>
       </c>
@@ -506,10 +592,10 @@
         <v>25061.36387137444</v>
       </c>
       <c r="D4">
-        <v>0.2512915467276335</v>
+        <v>0.25129154672763349</v>
       </c>
       <c r="E4">
-        <v>2538.632415642922</v>
+        <v>2538.6324156429218</v>
       </c>
       <c r="F4">
         <v>4400</v>
@@ -518,22 +604,22 @@
         <v>0.2392667825445646</v>
       </c>
       <c r="H4">
-        <v>438266.9325153045</v>
+        <v>435936.0356889554</v>
       </c>
       <c r="I4">
-        <v>2047662.171096989</v>
+        <v>2081462.8517131091</v>
       </c>
       <c r="J4">
-        <v>0.2351447545606818</v>
+        <v>0.2450183677838508</v>
       </c>
       <c r="K4">
-        <v>0.1872235047700353</v>
+        <v>0.18900471857619491</v>
       </c>
       <c r="L4">
-        <v>0.07810040411379277</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>7.932019596657057E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>90</v>
       </c>
@@ -544,34 +630,34 @@
         <v>24330.89773949164</v>
       </c>
       <c r="D5">
-        <v>0.2630576516763374</v>
+        <v>0.26305765167633732</v>
       </c>
       <c r="E5">
-        <v>2860.729988204401</v>
+        <v>2860.7299882044008</v>
       </c>
       <c r="F5">
         <v>4797</v>
       </c>
       <c r="G5">
-        <v>0.256542274491646</v>
+        <v>0.25654227449164602</v>
       </c>
       <c r="H5">
-        <v>418115.6771429557</v>
+        <v>424825.1696062971</v>
       </c>
       <c r="I5">
-        <v>1833096.727031893</v>
+        <v>1857893.7958711709</v>
       </c>
       <c r="J5">
-        <v>0.2197222840072813</v>
+        <v>0.22559875863706841</v>
       </c>
       <c r="K5">
-        <v>0.1757572155758537</v>
+        <v>0.18007872363692151</v>
       </c>
       <c r="L5">
-        <v>0.06602363614910838</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>6.7619307986509308E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>90</v>
       </c>
@@ -579,37 +665,37 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>19538.4515696242</v>
+        <v>19538.451569624202</v>
       </c>
       <c r="D6">
-        <v>0.2095133073414988</v>
+        <v>0.20951330734149881</v>
       </c>
       <c r="E6">
-        <v>2937.454411517586</v>
+        <v>2937.4544115175859</v>
       </c>
       <c r="F6">
         <v>1987</v>
       </c>
       <c r="G6">
-        <v>0.2606938620150164</v>
+        <v>0.26069386201501638</v>
       </c>
       <c r="H6">
-        <v>409442.0961662664</v>
+        <v>430677.08649562922</v>
       </c>
       <c r="I6">
-        <v>1870386.142131102</v>
+        <v>1963347.108854031</v>
       </c>
       <c r="J6">
-        <v>0.277384926316712</v>
+        <v>0.30202868243216202</v>
       </c>
       <c r="K6">
-        <v>0.2146362921663346</v>
+        <v>0.22550636963813309</v>
       </c>
       <c r="L6">
-        <v>0.08793336382075652</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>9.4914175913876242E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>90</v>
       </c>
@@ -617,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>19742.66658533122</v>
+        <v>19742.666585331219</v>
       </c>
       <c r="D7">
-        <v>0.2237494430748418</v>
+        <v>0.22374944307484179</v>
       </c>
       <c r="E7">
         <v>3034.817888242439</v>
@@ -629,25 +715,25 @@
         <v>4156</v>
       </c>
       <c r="G7">
-        <v>0.2840579071847602</v>
+        <v>0.28405790718476021</v>
       </c>
       <c r="H7">
-        <v>408642.4808992357</v>
+        <v>413950.08763914701</v>
       </c>
       <c r="I7">
-        <v>1674282.296306528</v>
+        <v>1679040.772217351</v>
       </c>
       <c r="J7">
-        <v>0.2071016579472115</v>
+        <v>0.20846089958786859</v>
       </c>
       <c r="K7">
-        <v>0.1604326606500164</v>
+        <v>0.1617349544933131</v>
       </c>
       <c r="L7">
-        <v>0.05795134727161942</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5.8157045335520033E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>90</v>
       </c>
@@ -655,37 +741,37 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>16418.11235504519</v>
+        <v>16418.112355045188</v>
       </c>
       <c r="D8">
         <v>0.231050421359141</v>
       </c>
       <c r="E8">
-        <v>2495.076969107006</v>
+        <v>2495.0769691070059</v>
       </c>
       <c r="F8">
         <v>687</v>
       </c>
       <c r="G8">
-        <v>0.3526814167170634</v>
+        <v>0.35268141671706338</v>
       </c>
       <c r="H8">
-        <v>455931.6655620583</v>
+        <v>427180.62960495328</v>
       </c>
       <c r="I8">
-        <v>1324151.170294581</v>
+        <v>1243068.4632989999</v>
       </c>
       <c r="J8">
-        <v>0.4046776190571418</v>
+        <v>0.37125114498948131</v>
       </c>
       <c r="K8">
-        <v>0.3100209559464435</v>
+        <v>0.2950380280437746</v>
       </c>
       <c r="L8">
-        <v>0.1423982217442201</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.13307848219932811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>90</v>
       </c>
@@ -693,37 +779,37 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>33161.16074069985</v>
+        <v>33161.160740699852</v>
       </c>
       <c r="D9">
         <v>0.3113266207287943</v>
       </c>
       <c r="E9">
-        <v>2405.984921026082</v>
+        <v>2405.9849210260818</v>
       </c>
       <c r="F9">
         <v>1017</v>
       </c>
       <c r="G9">
-        <v>0.2770176886707426</v>
+        <v>0.27701768867074261</v>
       </c>
       <c r="H9">
-        <v>461740.6031890981</v>
+        <v>446938.67818231293</v>
       </c>
       <c r="I9">
-        <v>1768170.925066767</v>
+        <v>1713517.0139139299</v>
       </c>
       <c r="J9">
-        <v>0.2827763105318386</v>
+        <v>0.2642427224094212</v>
       </c>
       <c r="K9">
-        <v>0.193434153112088</v>
+        <v>0.18099510614123429</v>
       </c>
       <c r="L9">
-        <v>0.07333866804690069</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7.0977457470208213E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>90</v>
       </c>
@@ -731,37 +817,37 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>9777.74347668737</v>
+        <v>9777.7434766873703</v>
       </c>
       <c r="D10">
-        <v>0.1359824061018066</v>
+        <v>0.13598240610180659</v>
       </c>
       <c r="E10">
-        <v>3148.825056324807</v>
+        <v>3148.8250563248071</v>
       </c>
       <c r="F10">
         <v>1316</v>
       </c>
       <c r="G10">
-        <v>0.3049445710886424</v>
+        <v>0.30494457108864242</v>
       </c>
       <c r="H10">
-        <v>450511.4620744693</v>
+        <v>415452.97174782678</v>
       </c>
       <c r="I10">
-        <v>1687367.925487335</v>
+        <v>1559311.1021922859</v>
       </c>
       <c r="J10">
-        <v>0.2103223695826428</v>
+        <v>0.16315188228174601</v>
       </c>
       <c r="K10">
-        <v>0.1820036095727036</v>
+        <v>0.18727064995567011</v>
       </c>
       <c r="L10">
-        <v>0.08306894189206607</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>8.224233504436386E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>90</v>
       </c>
@@ -769,37 +855,37 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>9419.483189491917</v>
+        <v>9419.4831894919171</v>
       </c>
       <c r="D11">
-        <v>0.1274901735164765</v>
+        <v>0.12749017351647651</v>
       </c>
       <c r="E11">
-        <v>2903.179139421624</v>
+        <v>2903.1791394216239</v>
       </c>
       <c r="F11">
         <v>3273</v>
       </c>
       <c r="G11">
-        <v>0.344079414227933</v>
+        <v>0.34407941422793298</v>
       </c>
       <c r="H11">
-        <v>427122.4618847568</v>
+        <v>396680.71407926752</v>
       </c>
       <c r="I11">
-        <v>1289112.24277677</v>
+        <v>1228647.859270564</v>
       </c>
       <c r="J11">
-        <v>0.2146096460347979</v>
+        <v>0.1840200240223569</v>
       </c>
       <c r="K11">
-        <v>0.1716964451618459</v>
+        <v>0.1674141400300444</v>
       </c>
       <c r="L11">
-        <v>0.0657232324021708</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>6.3817331038134001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>90</v>
       </c>
@@ -807,37 +893,37 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>8531.06417123045</v>
+        <v>8531.0641712304496</v>
       </c>
       <c r="D12">
         <v>0.1094807227372934</v>
       </c>
       <c r="E12">
-        <v>3442.929365064855</v>
+        <v>3442.9293650648551</v>
       </c>
       <c r="F12">
         <v>5207</v>
       </c>
       <c r="G12">
-        <v>0.3406889038976174</v>
+        <v>0.34068890389761741</v>
       </c>
       <c r="H12">
-        <v>439456.4839484895</v>
+        <v>429946.45373378601</v>
       </c>
       <c r="I12">
-        <v>1419366.203781418</v>
+        <v>1389187.7842976041</v>
       </c>
       <c r="J12">
-        <v>0.2401158249771258</v>
+        <v>0.22755234506370731</v>
       </c>
       <c r="K12">
-        <v>0.1650947437281843</v>
+        <v>0.166238452296401</v>
       </c>
       <c r="L12">
-        <v>0.08072923449389573</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>7.1432284567170143E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>90</v>
       </c>
@@ -845,37 +931,37 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>8163.572730279144</v>
+        <v>8163.5727302791438</v>
       </c>
       <c r="D13">
         <v>0.1058405424378575</v>
       </c>
       <c r="E13">
-        <v>3466.605643726554</v>
+        <v>3466.6056437265538</v>
       </c>
       <c r="F13">
         <v>6710</v>
       </c>
       <c r="G13">
-        <v>0.3631701441799856</v>
+        <v>0.36317014417998561</v>
       </c>
       <c r="H13">
-        <v>406258.3606064203</v>
+        <v>397434.45467635238</v>
       </c>
       <c r="I13">
-        <v>1256263.09579139</v>
+        <v>1222758.060042135</v>
       </c>
       <c r="J13">
-        <v>0.2360196614815665</v>
+        <v>0.217549257575717</v>
       </c>
       <c r="K13">
-        <v>0.148308601189375</v>
+        <v>0.1460889194283467</v>
       </c>
       <c r="L13">
-        <v>0.06647845715778653</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>6.4273950385628595E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>90</v>
       </c>
@@ -883,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>8308.997565610536</v>
+        <v>8308.9975656105362</v>
       </c>
       <c r="D14">
         <v>0.1418935906884834</v>
@@ -898,22 +984,22 @@
         <v>0.4074495929264238</v>
       </c>
       <c r="H14">
-        <v>427537.9384839728</v>
+        <v>426634.77339160268</v>
       </c>
       <c r="I14">
-        <v>938315.3197228884</v>
+        <v>936114.82919791713</v>
       </c>
       <c r="J14">
-        <v>0.3080182035619212</v>
+        <v>0.30661608984121919</v>
       </c>
       <c r="K14">
-        <v>0.2584340897400539</v>
+        <v>0.25790168480525349</v>
       </c>
       <c r="L14">
-        <v>0.153952603192128</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.15416487341641771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>91</v>
       </c>
@@ -924,34 +1010,34 @@
         <v>109880.2935900165</v>
       </c>
       <c r="D15">
-        <v>0.4407838482514423</v>
+        <v>0.44078384825144229</v>
       </c>
       <c r="E15">
-        <v>2326.487651551189</v>
+        <v>2326.4876515511892</v>
       </c>
       <c r="F15">
         <v>1080</v>
       </c>
       <c r="G15">
-        <v>0.1768437711460568</v>
+        <v>0.17684377114605679</v>
       </c>
       <c r="H15">
-        <v>696007.640411944</v>
+        <v>707933.83119497891</v>
       </c>
       <c r="I15">
-        <v>4106568.176397043</v>
+        <v>4166755.8973639039</v>
       </c>
       <c r="J15">
-        <v>0.2215401137334405</v>
+        <v>0.23210919306286409</v>
       </c>
       <c r="K15">
-        <v>0.1934470408441991</v>
+        <v>0.19314614394946999</v>
       </c>
       <c r="L15">
-        <v>0.08154477431142256</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>8.1286309942478874E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>91</v>
       </c>
@@ -959,37 +1045,37 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>46513.69142184065</v>
+        <v>46513.691421840653</v>
       </c>
       <c r="D16">
-        <v>0.3334963389622556</v>
+        <v>0.33349633896225561</v>
       </c>
       <c r="E16">
-        <v>2511.325458560257</v>
+        <v>2511.3254585602572</v>
       </c>
       <c r="F16">
         <v>1554</v>
       </c>
       <c r="G16">
-        <v>0.226512851419101</v>
+        <v>0.22651285141910099</v>
       </c>
       <c r="H16">
-        <v>629088.6589364911</v>
+        <v>647317.58751008054</v>
       </c>
       <c r="I16">
-        <v>3063098.030546084</v>
+        <v>3070994.9463173822</v>
       </c>
       <c r="J16">
-        <v>0.244735403159712</v>
+        <v>0.24592429394176379</v>
       </c>
       <c r="K16">
-        <v>0.1749676576798426</v>
+        <v>0.17606634067590479</v>
       </c>
       <c r="L16">
-        <v>0.05933281169527527</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>5.9648216909520657E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>91</v>
       </c>
@@ -997,37 +1083,37 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>30844.6296669873</v>
+        <v>30844.629666987301</v>
       </c>
       <c r="D17">
-        <v>0.2660428215122454</v>
+        <v>0.26604282151224529</v>
       </c>
       <c r="E17">
-        <v>2474.619904742443</v>
+        <v>2474.6199047424429</v>
       </c>
       <c r="F17">
         <v>4359</v>
       </c>
       <c r="G17">
-        <v>0.2538770085686933</v>
+        <v>0.25387700856869327</v>
       </c>
       <c r="H17">
-        <v>618918.0415719186</v>
+        <v>606116.16249411483</v>
       </c>
       <c r="I17">
-        <v>2637166.562728731</v>
+        <v>2662794.7932683541</v>
       </c>
       <c r="J17">
-        <v>0.2856376755526344</v>
+        <v>0.29119713619857091</v>
       </c>
       <c r="K17">
-        <v>0.1898792174552552</v>
+        <v>0.1917778822955469</v>
       </c>
       <c r="L17">
-        <v>0.08197764398821872</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>8.3081254842166691E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>91</v>
       </c>
@@ -1035,37 +1121,37 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>29548.75316460466</v>
+        <v>29548.753164604659</v>
       </c>
       <c r="D18">
         <v>0.2595991315091673</v>
       </c>
       <c r="E18">
-        <v>2796.455630926126</v>
+        <v>2796.4556309261261</v>
       </c>
       <c r="F18">
         <v>4706</v>
       </c>
       <c r="G18">
-        <v>0.2758948551900038</v>
+        <v>0.27589485519000378</v>
       </c>
       <c r="H18">
-        <v>593612.5392918835</v>
+        <v>608078.0926009668</v>
       </c>
       <c r="I18">
-        <v>2419470.253102575</v>
+        <v>2426979.0137893781</v>
       </c>
       <c r="J18">
-        <v>0.2467305438142606</v>
+        <v>0.2486909508971564</v>
       </c>
       <c r="K18">
-        <v>0.175507674307902</v>
+        <v>0.1764239221438548</v>
       </c>
       <c r="L18">
-        <v>0.07205277317986927</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>7.2149989035290851E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>91</v>
       </c>
@@ -1073,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>22623.971502331</v>
+        <v>22623.971502330998</v>
       </c>
       <c r="D19">
         <v>0.1933692162251627</v>
@@ -1085,25 +1171,25 @@
         <v>2058</v>
       </c>
       <c r="G19">
-        <v>0.2819071032632107</v>
+        <v>0.28190710326321072</v>
       </c>
       <c r="H19">
-        <v>598034.419695432</v>
+        <v>589387.88456067687</v>
       </c>
       <c r="I19">
-        <v>2430593.036765449</v>
+        <v>2392871.2060330878</v>
       </c>
       <c r="J19">
-        <v>0.2784816626411666</v>
+        <v>0.26579078258895822</v>
       </c>
       <c r="K19">
-        <v>0.1798436214392002</v>
+        <v>0.17982268577690411</v>
       </c>
       <c r="L19">
-        <v>0.06595128649400728</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>6.4176363847828627E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>91</v>
       </c>
@@ -1117,31 +1203,31 @@
         <v>0.2105456897838017</v>
       </c>
       <c r="E20">
-        <v>3212.613157222738</v>
+        <v>3212.6131572227382</v>
       </c>
       <c r="F20">
         <v>4068</v>
       </c>
       <c r="G20">
-        <v>0.3104137998040571</v>
+        <v>0.31041379980405709</v>
       </c>
       <c r="H20">
-        <v>577395.9153857153</v>
+        <v>574205.98476224428</v>
       </c>
       <c r="I20">
-        <v>2085852.113419158</v>
+        <v>2086830.388370146</v>
       </c>
       <c r="J20">
-        <v>0.186905446799619</v>
+        <v>0.18804984967942051</v>
       </c>
       <c r="K20">
-        <v>0.1577611300657533</v>
+        <v>0.1571329439903244</v>
       </c>
       <c r="L20">
-        <v>0.05697160979263431</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>5.6719587613742649E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>91</v>
       </c>
@@ -1149,37 +1235,37 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>20390.56039851669</v>
+        <v>20390.560398516689</v>
       </c>
       <c r="D21">
         <v>0.2003074334272241</v>
       </c>
       <c r="E21">
-        <v>2638.371219984412</v>
+        <v>2638.3712199844122</v>
       </c>
       <c r="F21">
         <v>675</v>
       </c>
       <c r="G21">
-        <v>0.3810424425636764</v>
+        <v>0.38104244256367642</v>
       </c>
       <c r="H21">
-        <v>699348.5420880201</v>
+        <v>681296.61603601556</v>
       </c>
       <c r="I21">
-        <v>1905170.832090142</v>
+        <v>1860543.597869759</v>
       </c>
       <c r="J21">
-        <v>0.3998353841264946</v>
+        <v>0.38387092934515937</v>
       </c>
       <c r="K21">
-        <v>0.2582592046182798</v>
+        <v>0.2525537495169376</v>
       </c>
       <c r="L21">
-        <v>0.1075916994154218</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.1045451288873681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>91</v>
       </c>
@@ -1187,37 +1273,37 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>40701.11146567689</v>
+        <v>40701.111465676891</v>
       </c>
       <c r="D22">
-        <v>0.3006171766050668</v>
+        <v>0.30061717660506682</v>
       </c>
       <c r="E22">
-        <v>2096.596680966957</v>
+        <v>2096.5966809669571</v>
       </c>
       <c r="F22">
         <v>1043</v>
       </c>
       <c r="G22">
-        <v>0.2631901509692823</v>
+        <v>0.26319015096928228</v>
       </c>
       <c r="H22">
-        <v>685910.7323097575</v>
+        <v>609912.938084519</v>
       </c>
       <c r="I22">
-        <v>2402224.278985388</v>
+        <v>2194168.406871167</v>
       </c>
       <c r="J22">
-        <v>0.3274376380649446</v>
+        <v>0.25542134212464512</v>
       </c>
       <c r="K22">
-        <v>0.2131576724994655</v>
+        <v>0.20284669520133761</v>
       </c>
       <c r="L22">
-        <v>0.07466645889835298</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>6.6346733664568738E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>91</v>
       </c>
@@ -1231,31 +1317,31 @@
         <v>0.1398790254510415</v>
       </c>
       <c r="E23">
-        <v>3111.849440028769</v>
+        <v>3111.8494400287691</v>
       </c>
       <c r="F23">
         <v>1321</v>
       </c>
       <c r="G23">
-        <v>0.3375786455747277</v>
+        <v>0.33757864557472772</v>
       </c>
       <c r="H23">
-        <v>607091.4330594603</v>
+        <v>565544.54218996165</v>
       </c>
       <c r="I23">
-        <v>2084724.913870662</v>
+        <v>1972039.355408431</v>
       </c>
       <c r="J23">
-        <v>0.2167717975637485</v>
+        <v>0.1889819429246917</v>
       </c>
       <c r="K23">
-        <v>0.1710340896311022</v>
+        <v>0.15588471074527219</v>
       </c>
       <c r="L23">
-        <v>0.07657165878746515</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>7.5718130612709794E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>91</v>
       </c>
@@ -1263,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>11552.00732916827</v>
+        <v>11552.007329168269</v>
       </c>
       <c r="D24">
         <v>0.1227019695962063</v>
@@ -1275,25 +1361,25 @@
         <v>3246</v>
       </c>
       <c r="G24">
-        <v>0.3594044866045522</v>
+        <v>0.35940448660455221</v>
       </c>
       <c r="H24">
-        <v>604122.7851514978</v>
+        <v>558671.33827733924</v>
       </c>
       <c r="I24">
-        <v>1761652.472804035</v>
+        <v>1684651.2606989639</v>
       </c>
       <c r="J24">
-        <v>0.2188571740086241</v>
+        <v>0.19702212028654381</v>
       </c>
       <c r="K24">
-        <v>0.1733302250745429</v>
+        <v>0.1576460215707654</v>
       </c>
       <c r="L24">
-        <v>0.06216485974352333</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>5.833833367426991E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>91</v>
       </c>
@@ -1313,25 +1399,25 @@
         <v>5168</v>
       </c>
       <c r="G25">
-        <v>0.3673776401725933</v>
+        <v>0.36737764017259328</v>
       </c>
       <c r="H25">
-        <v>624406.7985413737</v>
+        <v>586983.29078439751</v>
       </c>
       <c r="I25">
-        <v>1856750.884879328</v>
+        <v>1759302.945432767</v>
       </c>
       <c r="J25">
-        <v>0.1982441668104503</v>
+        <v>0.16774046088599359</v>
       </c>
       <c r="K25">
-        <v>0.1650554720232058</v>
+        <v>0.16216686934395011</v>
       </c>
       <c r="L25">
-        <v>0.06646242377373689</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>6.2173258339135541E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>91</v>
       </c>
@@ -1339,13 +1425,13 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>9754.315294892449</v>
+        <v>9754.3152948924489</v>
       </c>
       <c r="D26">
-        <v>0.1043888811790017</v>
+        <v>0.10438888117900171</v>
       </c>
       <c r="E26">
-        <v>3506.945199914286</v>
+        <v>3506.9451999142861</v>
       </c>
       <c r="F26">
         <v>6630</v>
@@ -1354,22 +1440,22 @@
         <v>0.383078890334272</v>
       </c>
       <c r="H26">
-        <v>588255.9428473515</v>
+        <v>556323.13390620227</v>
       </c>
       <c r="I26">
-        <v>1665321.948119266</v>
+        <v>1576940.5977040969</v>
       </c>
       <c r="J26">
-        <v>0.265343909314774</v>
+        <v>0.22059732531536291</v>
       </c>
       <c r="K26">
-        <v>0.1481418307458182</v>
+        <v>0.1429009545285613</v>
       </c>
       <c r="L26">
-        <v>0.06753953092057155</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>6.7113215431986922E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>91</v>
       </c>
@@ -1377,37 +1463,37 @@
         <v>13</v>
       </c>
       <c r="C27">
-        <v>10234.05439922584</v>
+        <v>10234.054399225841</v>
       </c>
       <c r="D27">
-        <v>0.1266954593689615</v>
+        <v>0.12669545936896151</v>
       </c>
       <c r="E27">
-        <v>2962.555448233493</v>
+        <v>2962.5554482334928</v>
       </c>
       <c r="F27">
         <v>2196</v>
       </c>
       <c r="G27">
-        <v>0.4351366381945547</v>
+        <v>0.43513663819455473</v>
       </c>
       <c r="H27">
-        <v>607074.3249681209</v>
+        <v>586489.51405230793</v>
       </c>
       <c r="I27">
-        <v>1337280.490585361</v>
+        <v>1315561.5609336949</v>
       </c>
       <c r="J27">
-        <v>0.2916001210785186</v>
+        <v>0.27924822702273377</v>
       </c>
       <c r="K27">
-        <v>0.2142424166922617</v>
+        <v>0.2177852976748319</v>
       </c>
       <c r="L27">
-        <v>0.08394442203538659</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>7.9699310835703058E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>92</v>
       </c>
@@ -1415,37 +1501,37 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>138235.4623889127</v>
+        <v>138235.46238891271</v>
       </c>
       <c r="D28">
-        <v>0.44979876489208</v>
+        <v>0.44979876489207998</v>
       </c>
       <c r="E28">
-        <v>2231.297412504998</v>
+        <v>2231.2974125049982</v>
       </c>
       <c r="F28">
         <v>998</v>
       </c>
       <c r="G28">
-        <v>0.1695483223282983</v>
+        <v>0.16954832232829831</v>
       </c>
       <c r="H28">
-        <v>888826.393275772</v>
+        <v>917555.79366804345</v>
       </c>
       <c r="I28">
-        <v>5309891.228813573</v>
+        <v>5481599.9245405002</v>
       </c>
       <c r="J28">
-        <v>0.2009833072046929</v>
+        <v>0.22263085994818871</v>
       </c>
       <c r="K28">
-        <v>0.163678282655199</v>
+        <v>0.16783394668448179</v>
       </c>
       <c r="L28">
-        <v>0.07271279109039215</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>7.2017504081438394E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>92</v>
       </c>
@@ -1453,10 +1539,10 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>61517.47815858729</v>
+        <v>61517.478158587292</v>
       </c>
       <c r="D29">
-        <v>0.3421246313652818</v>
+        <v>0.34212463136528182</v>
       </c>
       <c r="E29">
         <v>2372.945414106784</v>
@@ -1465,25 +1551,25 @@
         <v>1238</v>
       </c>
       <c r="G29">
-        <v>0.2162753921636058</v>
+        <v>0.21627539216360581</v>
       </c>
       <c r="H29">
-        <v>856748.2840720386</v>
+        <v>881201.79602332809</v>
       </c>
       <c r="I29">
-        <v>4045017.083766201</v>
+        <v>4119141.6619836148</v>
       </c>
       <c r="J29">
-        <v>0.2482560915026848</v>
+        <v>0.25927271458265261</v>
       </c>
       <c r="K29">
-        <v>0.1597287248200377</v>
+        <v>0.1645175367502088</v>
       </c>
       <c r="L29">
-        <v>0.05962170206584098</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>6.1468949657054552E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>92</v>
       </c>
@@ -1491,10 +1577,10 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>39998.12141864315</v>
+        <v>39998.121418643153</v>
       </c>
       <c r="D30">
-        <v>0.2697566916015267</v>
+        <v>0.26975669160152671</v>
       </c>
       <c r="E30">
         <v>2254.244486610673</v>
@@ -1503,25 +1589,25 @@
         <v>4446</v>
       </c>
       <c r="G30">
-        <v>0.2457243581722068</v>
+        <v>0.24572435817220681</v>
       </c>
       <c r="H30">
-        <v>843445.7847287855</v>
+        <v>837792.4406606952</v>
       </c>
       <c r="I30">
-        <v>3555635.75140815</v>
+        <v>3599615.7428189651</v>
       </c>
       <c r="J30">
-        <v>0.2924516147937797</v>
+        <v>0.3011736426347234</v>
       </c>
       <c r="K30">
-        <v>0.1790307035084903</v>
+        <v>0.1802090866019527</v>
       </c>
       <c r="L30">
-        <v>0.07148134113385771</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>7.3598438146631737E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>92</v>
       </c>
@@ -1529,37 +1615,37 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>38701.05246076812</v>
+        <v>38701.052460768122</v>
       </c>
       <c r="D31">
         <v>0.2650956851435593</v>
       </c>
       <c r="E31">
-        <v>2511.68585731014</v>
+        <v>2511.6858573101399</v>
       </c>
       <c r="F31">
         <v>4885</v>
       </c>
       <c r="G31">
-        <v>0.2596455522811684</v>
+        <v>0.25964555228116842</v>
       </c>
       <c r="H31">
-        <v>836119.6102905668</v>
+        <v>853845.35227421345</v>
       </c>
       <c r="I31">
-        <v>3278663.730217032</v>
+        <v>3327720.4792077271</v>
       </c>
       <c r="J31">
-        <v>0.2613979471612384</v>
+        <v>0.2752096234293438</v>
       </c>
       <c r="K31">
-        <v>0.1868279198517337</v>
+        <v>0.1850393858666273</v>
       </c>
       <c r="L31">
-        <v>0.07354033076042982</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>7.4077909984859469E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>92</v>
       </c>
@@ -1570,34 +1656,34 @@
         <v>30216.0402048502</v>
       </c>
       <c r="D32">
-        <v>0.2109913555369591</v>
+        <v>0.21099135553695911</v>
       </c>
       <c r="E32">
-        <v>2698.442358220065</v>
+        <v>2698.4423582200661</v>
       </c>
       <c r="F32">
         <v>2016</v>
       </c>
       <c r="G32">
-        <v>0.2818896981095442</v>
+        <v>0.28188969810954417</v>
       </c>
       <c r="H32">
-        <v>817647.8410027649</v>
+        <v>833079.68364226888</v>
       </c>
       <c r="I32">
-        <v>3127711.65934379</v>
+        <v>3203361.566507645</v>
       </c>
       <c r="J32">
-        <v>0.2386694064622591</v>
+        <v>0.2577942199377074</v>
       </c>
       <c r="K32">
-        <v>0.170788882885568</v>
+        <v>0.16877238331414249</v>
       </c>
       <c r="L32">
-        <v>0.07261085227056079</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>7.4916473458358473E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>92</v>
       </c>
@@ -1605,37 +1691,37 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>29525.36461496376</v>
+        <v>29525.364614963761</v>
       </c>
       <c r="D33">
-        <v>0.2061157998272208</v>
+        <v>0.20611579982722081</v>
       </c>
       <c r="E33">
-        <v>2997.04993807428</v>
+        <v>2997.0499380742799</v>
       </c>
       <c r="F33">
         <v>4588</v>
       </c>
       <c r="G33">
-        <v>0.3099294114978571</v>
+        <v>0.30992941149785708</v>
       </c>
       <c r="H33">
-        <v>809405.1632842337</v>
+        <v>812078.74498121999</v>
       </c>
       <c r="I33">
-        <v>2715361.434812173</v>
+        <v>2812822.8866616269</v>
       </c>
       <c r="J33">
-        <v>0.1590560224537029</v>
+        <v>0.1826433960295587</v>
       </c>
       <c r="K33">
-        <v>0.1446192136119446</v>
+        <v>0.14667322179881609</v>
       </c>
       <c r="L33">
-        <v>0.05453082200449124</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>5.4867880190790641E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>92</v>
       </c>
@@ -1649,7 +1735,7 @@
         <v>0.2064001376001143</v>
       </c>
       <c r="E34">
-        <v>2747.545825399545</v>
+        <v>2747.5458253995448</v>
       </c>
       <c r="F34">
         <v>680</v>
@@ -1658,22 +1744,22 @@
         <v>0.3723675980615434</v>
       </c>
       <c r="H34">
-        <v>816322.3151779207</v>
+        <v>825451.18019165134</v>
       </c>
       <c r="I34">
-        <v>2259562.363053682</v>
+        <v>2284050.236927053</v>
       </c>
       <c r="J34">
-        <v>0.3041435574765078</v>
+        <v>0.31425036663140937</v>
       </c>
       <c r="K34">
-        <v>0.2558567892605996</v>
+        <v>0.25466626282619048</v>
       </c>
       <c r="L34">
-        <v>0.09513607460083301</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>9.5581440620007896E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>92</v>
       </c>
@@ -1681,37 +1767,37 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>50092.7247298967</v>
+        <v>50092.724729896698</v>
       </c>
       <c r="D35">
-        <v>0.3426238525357891</v>
+        <v>0.34262385253578909</v>
       </c>
       <c r="E35">
-        <v>1977.998392288424</v>
+        <v>1977.9983922884239</v>
       </c>
       <c r="F35">
         <v>998</v>
       </c>
       <c r="G35">
-        <v>0.2676630035304413</v>
+        <v>0.26766300353044131</v>
       </c>
       <c r="H35">
-        <v>874815.6689479525</v>
+        <v>787462.43174999685</v>
       </c>
       <c r="I35">
-        <v>3126719.53137249</v>
+        <v>2889843.2131618559</v>
       </c>
       <c r="J35">
-        <v>0.3480863938710216</v>
+        <v>0.29379358711951498</v>
       </c>
       <c r="K35">
-        <v>0.2201785553201783</v>
+        <v>0.20329517435603631</v>
       </c>
       <c r="L35">
-        <v>0.08241089349202681</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>7.1152163033306237E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>92</v>
       </c>
@@ -1719,37 +1805,37 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>16094.33245528178</v>
+        <v>16094.332455281779</v>
       </c>
       <c r="D36">
-        <v>0.138972597895138</v>
+        <v>0.13897259789513799</v>
       </c>
       <c r="E36">
-        <v>2822.507634646695</v>
+        <v>2822.5076346466949</v>
       </c>
       <c r="F36">
         <v>1299</v>
       </c>
       <c r="G36">
-        <v>0.3293567509002892</v>
+        <v>0.32935675090028921</v>
       </c>
       <c r="H36">
-        <v>815264.6312465718</v>
+        <v>760669.51344626956</v>
       </c>
       <c r="I36">
-        <v>2853731.618127913</v>
+        <v>2696699.4767848481</v>
       </c>
       <c r="J36">
-        <v>0.2265850751278074</v>
+        <v>0.1977814741393584</v>
       </c>
       <c r="K36">
-        <v>0.1661354983183329</v>
+        <v>0.15473080251775381</v>
       </c>
       <c r="L36">
-        <v>0.08174473825669235</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>7.7525091437514876E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>92</v>
       </c>
@@ -1760,7 +1846,7 @@
         <v>13585.68101436088</v>
       </c>
       <c r="D37">
-        <v>0.1173752564123395</v>
+        <v>0.11737525641233949</v>
       </c>
       <c r="E37">
         <v>2971.335195877261</v>
@@ -1769,25 +1855,25 @@
         <v>2986</v>
       </c>
       <c r="G37">
-        <v>0.3622553511691032</v>
+        <v>0.36225535116910318</v>
       </c>
       <c r="H37">
-        <v>822738.4094791316</v>
+        <v>799423.99496857857</v>
       </c>
       <c r="I37">
-        <v>2436155.940097411</v>
+        <v>2432884.4493455891</v>
       </c>
       <c r="J37">
-        <v>0.222839195680749</v>
+        <v>0.22269091922888609</v>
       </c>
       <c r="K37">
-        <v>0.1815820120115124</v>
+        <v>0.1806317229534905</v>
       </c>
       <c r="L37">
-        <v>0.07365409877070057</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>7.3412615014138802E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>92</v>
       </c>
@@ -1801,31 +1887,31 @@
         <v>0.1102447852850225</v>
       </c>
       <c r="E38">
-        <v>3054.880098454107</v>
+        <v>3054.8800984541072</v>
       </c>
       <c r="F38">
         <v>5106</v>
       </c>
       <c r="G38">
-        <v>0.3775248289541124</v>
+        <v>0.37752482895411238</v>
       </c>
       <c r="H38">
-        <v>886317.4532669559</v>
+        <v>818415.86029607512</v>
       </c>
       <c r="I38">
-        <v>2574447.437662781</v>
+        <v>2432394.5164444381</v>
       </c>
       <c r="J38">
-        <v>0.3054507336257006</v>
+        <v>0.26186432561017642</v>
       </c>
       <c r="K38">
-        <v>0.1792429325055588</v>
+        <v>0.18011334651157729</v>
       </c>
       <c r="L38">
-        <v>0.1048296324594801</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>8.1750097596870852E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>92</v>
       </c>
@@ -1839,31 +1925,31 @@
         <v>0.10361479541427</v>
       </c>
       <c r="E39">
-        <v>3208.779114892283</v>
+        <v>3208.7791148922829</v>
       </c>
       <c r="F39">
         <v>6742</v>
       </c>
       <c r="G39">
-        <v>0.3884905214203669</v>
+        <v>0.38849052142036689</v>
       </c>
       <c r="H39">
-        <v>799934.3815780249</v>
+        <v>784920.41715363052</v>
       </c>
       <c r="I39">
-        <v>2202000.479212698</v>
+        <v>2176369.3072252101</v>
       </c>
       <c r="J39">
-        <v>0.2839155565096736</v>
+        <v>0.2741890983487118</v>
       </c>
       <c r="K39">
-        <v>0.1567874978362397</v>
+        <v>0.1548043156113765</v>
       </c>
       <c r="L39">
-        <v>0.07953515231185647</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>8.0227251930372681E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>92</v>
       </c>
@@ -1877,31 +1963,31 @@
         <v>0.1081755252576081</v>
       </c>
       <c r="E40">
-        <v>3115.363496864309</v>
+        <v>3115.3634968643091</v>
       </c>
       <c r="F40">
         <v>2249</v>
       </c>
       <c r="G40">
-        <v>0.4245034617019143</v>
+        <v>0.42450346170191428</v>
       </c>
       <c r="H40">
-        <v>811132.9423342085</v>
+        <v>780343.22575737059</v>
       </c>
       <c r="I40">
-        <v>1934429.97282858</v>
+        <v>1881701.772883568</v>
       </c>
       <c r="J40">
-        <v>0.3414238370544818</v>
+        <v>0.32488314453581513</v>
       </c>
       <c r="K40">
-        <v>0.2346091778666692</v>
+        <v>0.22854369695239249</v>
       </c>
       <c r="L40">
-        <v>0.09404790353210213</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>9.0085239618370144E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>93</v>
       </c>
@@ -1909,10 +1995,10 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>154695.2800583463</v>
+        <v>154695.28005834631</v>
       </c>
       <c r="D41">
-        <v>0.4310902056068631</v>
+        <v>0.43109020560686312</v>
       </c>
       <c r="E41">
         <v>2243.899263443056</v>
@@ -1921,25 +2007,25 @@
         <v>1044</v>
       </c>
       <c r="G41">
-        <v>0.1631914492801617</v>
+        <v>0.16319144928016169</v>
       </c>
       <c r="H41">
-        <v>985748.2861411789</v>
+        <v>1016373.534607511</v>
       </c>
       <c r="I41">
-        <v>6133090.472452055</v>
+        <v>6313282.1545178443</v>
       </c>
       <c r="J41">
-        <v>0.1879512923245166</v>
+        <v>0.20393893771968161</v>
       </c>
       <c r="K41">
-        <v>0.1647215640461544</v>
+        <v>0.17009470436023699</v>
       </c>
       <c r="L41">
-        <v>0.05544170433958127</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>5.7814539961531283E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>93</v>
       </c>
@@ -1947,13 +2033,13 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>70920.5408519514</v>
+        <v>70920.540851951402</v>
       </c>
       <c r="D42">
-        <v>0.3287746328221833</v>
+        <v>0.32877463282218328</v>
       </c>
       <c r="E42">
-        <v>2324.355785669701</v>
+        <v>2324.3557856697012</v>
       </c>
       <c r="F42">
         <v>1250</v>
@@ -1962,22 +2048,22 @@
         <v>0.197568646071801</v>
       </c>
       <c r="H42">
-        <v>924899.7994952336</v>
+        <v>939226.08930540679</v>
       </c>
       <c r="I42">
-        <v>4569672.453036365</v>
+        <v>4586517.7851801049</v>
       </c>
       <c r="J42">
-        <v>0.1833943494696744</v>
+        <v>0.18456133270837791</v>
       </c>
       <c r="K42">
-        <v>0.1639504295738568</v>
+        <v>0.16527315374344759</v>
       </c>
       <c r="L42">
-        <v>0.06291247235758535</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>6.3337716482645315E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>93</v>
       </c>
@@ -1985,10 +2071,10 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>46346.64036218999</v>
+        <v>46346.640362189988</v>
       </c>
       <c r="D43">
-        <v>0.2786048054694283</v>
+        <v>0.27860480546942828</v>
       </c>
       <c r="E43">
         <v>2184.111815579799</v>
@@ -2000,22 +2086,22 @@
         <v>0.2319562030325325</v>
       </c>
       <c r="H43">
-        <v>917467.2605523556</v>
+        <v>907448.73008600308</v>
       </c>
       <c r="I43">
-        <v>3884263.761152469</v>
+        <v>3902598.12119547</v>
       </c>
       <c r="J43">
-        <v>0.252196035834915</v>
+        <v>0.25543678684408738</v>
       </c>
       <c r="K43">
-        <v>0.1702065444267573</v>
+        <v>0.17155718057473379</v>
       </c>
       <c r="L43">
-        <v>0.06793428334236971</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>6.8187170186590984E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>93</v>
       </c>
@@ -2026,7 +2112,7 @@
         <v>45070.76146000783</v>
       </c>
       <c r="D44">
-        <v>0.281164387210139</v>
+        <v>0.28116438721013898</v>
       </c>
       <c r="E44">
         <v>2496.997069256503</v>
@@ -2038,22 +2124,22 @@
         <v>0.2462338310723157</v>
       </c>
       <c r="H44">
-        <v>888486.2501128188</v>
+        <v>911100.73332100944</v>
       </c>
       <c r="I44">
-        <v>3541913.650053938</v>
+        <v>3615642.0577956629</v>
       </c>
       <c r="J44">
-        <v>0.2404897807205482</v>
+        <v>0.25504811259342158</v>
       </c>
       <c r="K44">
-        <v>0.1888331591977775</v>
+        <v>0.19128238213492491</v>
       </c>
       <c r="L44">
-        <v>0.08906194716190025</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>8.8443374715661618E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>93</v>
       </c>
@@ -2061,37 +2147,37 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>34667.92289782602</v>
+        <v>34667.922897826022</v>
       </c>
       <c r="D45">
-        <v>0.2422848730249481</v>
+        <v>0.24228487302494811</v>
       </c>
       <c r="E45">
-        <v>2555.042135116137</v>
+        <v>2555.0421351161372</v>
       </c>
       <c r="F45">
         <v>2018</v>
       </c>
       <c r="G45">
-        <v>0.2609447479628089</v>
+        <v>0.26094474796280892</v>
       </c>
       <c r="H45">
-        <v>884509.8518882935</v>
+        <v>876371.67294207693</v>
       </c>
       <c r="I45">
-        <v>3437380.748555047</v>
+        <v>3386955.0817633462</v>
       </c>
       <c r="J45">
-        <v>0.2926719730571997</v>
+        <v>0.28273453914901808</v>
       </c>
       <c r="K45">
-        <v>0.218108280768105</v>
+        <v>0.21655838149875151</v>
       </c>
       <c r="L45">
-        <v>0.09913532082465767</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>9.8448996101488551E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>93</v>
       </c>
@@ -2099,37 +2185,37 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>33286.89209644467</v>
+        <v>33286.892096444673</v>
       </c>
       <c r="D46">
-        <v>0.221490391553037</v>
+        <v>0.22149039155303701</v>
       </c>
       <c r="E46">
-        <v>2889.855681877188</v>
+        <v>2889.8556818771881</v>
       </c>
       <c r="F46">
         <v>4566</v>
       </c>
       <c r="G46">
-        <v>0.2920141329281495</v>
+        <v>0.29201413292814948</v>
       </c>
       <c r="H46">
-        <v>878336.6409030783</v>
+        <v>888623.52475094958</v>
       </c>
       <c r="I46">
-        <v>3036130.89478907</v>
+        <v>3099264.451504081</v>
       </c>
       <c r="J46">
-        <v>0.1878620547164084</v>
+        <v>0.20071381946536829</v>
       </c>
       <c r="K46">
-        <v>0.1592547285746529</v>
+        <v>0.15992231459664061</v>
       </c>
       <c r="L46">
-        <v>0.06117137709225375</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>6.2643970821135694E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>93</v>
       </c>
@@ -2137,37 +2223,37 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>30581.72694899259</v>
+        <v>30581.726948992589</v>
       </c>
       <c r="D47">
-        <v>0.2185619224759006</v>
+        <v>0.21856192247590059</v>
       </c>
       <c r="E47">
-        <v>2693.998028288645</v>
+        <v>2693.9980282886449</v>
       </c>
       <c r="F47">
         <v>669</v>
       </c>
       <c r="G47">
-        <v>0.3545654649031655</v>
+        <v>0.35456546490316548</v>
       </c>
       <c r="H47">
-        <v>878762.2061574461</v>
+        <v>881599.06018277991</v>
       </c>
       <c r="I47">
-        <v>2477657.424378651</v>
+        <v>2477864.2715477692</v>
       </c>
       <c r="J47">
-        <v>0.3258673665306415</v>
+        <v>0.32586736653064152</v>
       </c>
       <c r="K47">
-        <v>0.268453505003162</v>
+        <v>0.26851457304603482</v>
       </c>
       <c r="L47">
-        <v>0.1036602583192091</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0.1036877754920225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>93</v>
       </c>
@@ -2175,37 +2261,37 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>58085.54600637611</v>
+        <v>58085.546006376113</v>
       </c>
       <c r="D48">
         <v>0.3471832014774191</v>
       </c>
       <c r="E48">
-        <v>2053.967847925576</v>
+        <v>2053.9678479255758</v>
       </c>
       <c r="F48">
         <v>1035</v>
       </c>
       <c r="G48">
-        <v>0.2510490262637383</v>
+        <v>0.25104902626373832</v>
       </c>
       <c r="H48">
-        <v>977244.7308784425</v>
+        <v>896463.35578273726</v>
       </c>
       <c r="I48">
-        <v>3733991.687873934</v>
+        <v>3447252.1319203801</v>
       </c>
       <c r="J48">
-        <v>0.3347701448590652</v>
+        <v>0.25677161951324518</v>
       </c>
       <c r="K48">
-        <v>0.1728003961909652</v>
+        <v>0.1584060112305469</v>
       </c>
       <c r="L48">
-        <v>0.05924789397647345</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>5.5959518269583022E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>93</v>
       </c>
@@ -2216,34 +2302,34 @@
         <v>19797.12357699444</v>
       </c>
       <c r="D49">
-        <v>0.1594320674506932</v>
+        <v>0.15943206745069319</v>
       </c>
       <c r="E49">
-        <v>2728.04723164776</v>
+        <v>2728.0472316477599</v>
       </c>
       <c r="F49">
         <v>1285</v>
       </c>
       <c r="G49">
-        <v>0.3065421228197274</v>
+        <v>0.30654212281972743</v>
       </c>
       <c r="H49">
-        <v>912331.3372528568</v>
+        <v>855860.52443807933</v>
       </c>
       <c r="I49">
-        <v>3202246.95712272</v>
+        <v>3074229.5098974979</v>
       </c>
       <c r="J49">
-        <v>0.2402522439576788</v>
+        <v>0.21435576119667041</v>
       </c>
       <c r="K49">
-        <v>0.1716721003641467</v>
+        <v>0.1673210381215163</v>
       </c>
       <c r="L49">
-        <v>0.0850635711502838</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>8.1424240778733586E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>93</v>
       </c>
@@ -2254,34 +2340,34 @@
         <v>15903.09325760492</v>
       </c>
       <c r="D50">
-        <v>0.1281062921348596</v>
+        <v>0.12810629213485961</v>
       </c>
       <c r="E50">
-        <v>2918.162779082622</v>
+        <v>2918.1627790826219</v>
       </c>
       <c r="F50">
         <v>2986</v>
       </c>
       <c r="G50">
-        <v>0.3340593567579521</v>
+        <v>0.33405935675795212</v>
       </c>
       <c r="H50">
-        <v>892876.0074205153</v>
+        <v>862243.10034100362</v>
       </c>
       <c r="I50">
-        <v>2699507.43880744</v>
+        <v>2678989.517354493</v>
       </c>
       <c r="J50">
-        <v>0.2225245016952297</v>
+        <v>0.22010121055484261</v>
       </c>
       <c r="K50">
-        <v>0.1550897682828221</v>
+        <v>0.1508754032814264</v>
       </c>
       <c r="L50">
-        <v>0.06386254552169138</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>6.3138793954696779E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>93</v>
       </c>
@@ -2292,34 +2378,34 @@
         <v>12248.49636375497</v>
       </c>
       <c r="D51">
-        <v>0.1121489261001822</v>
+        <v>0.11214892610018221</v>
       </c>
       <c r="E51">
-        <v>2931.484246918859</v>
+        <v>2931.4842469188588</v>
       </c>
       <c r="F51">
         <v>5057</v>
       </c>
       <c r="G51">
-        <v>0.3470702990806714</v>
+        <v>0.34707029908067139</v>
       </c>
       <c r="H51">
-        <v>919731.6019543542</v>
+        <v>931942.18643869122</v>
       </c>
       <c r="I51">
-        <v>2686725.757044844</v>
+        <v>2753814.4356541042</v>
       </c>
       <c r="J51">
-        <v>0.3124142102288032</v>
+        <v>0.33384540051927769</v>
       </c>
       <c r="K51">
-        <v>0.209965069582669</v>
+        <v>0.20892129030057799</v>
       </c>
       <c r="L51">
-        <v>0.09510941436631462</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>9.6027763523051396E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>93</v>
       </c>
@@ -2333,31 +2419,31 @@
         <v>0.1170622163031321</v>
       </c>
       <c r="E52">
-        <v>2997.82704524709</v>
+        <v>2997.8270452470902</v>
       </c>
       <c r="F52">
         <v>6729</v>
       </c>
       <c r="G52">
-        <v>0.3728718631537246</v>
+        <v>0.37287186315372461</v>
       </c>
       <c r="H52">
-        <v>877217.6078639382</v>
+        <v>843755.81283997232</v>
       </c>
       <c r="I52">
-        <v>2399528.871738619</v>
+        <v>2324058.7037542481</v>
       </c>
       <c r="J52">
-        <v>0.3197722958560905</v>
+        <v>0.30096849505293211</v>
       </c>
       <c r="K52">
-        <v>0.2338635057881014</v>
+        <v>0.2277521728395912</v>
       </c>
       <c r="L52">
-        <v>0.1096699175655865</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0.1073602223664526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>93</v>
       </c>
@@ -2371,31 +2457,31 @@
         <v>0.1107753049779278</v>
       </c>
       <c r="E53">
-        <v>3000.881069998181</v>
+        <v>3000.8810699981809</v>
       </c>
       <c r="F53">
         <v>2236</v>
       </c>
       <c r="G53">
-        <v>0.4237030468410009</v>
+        <v>0.42370304684100091</v>
       </c>
       <c r="H53">
-        <v>871553.2286756506</v>
+        <v>897861.59572387452</v>
       </c>
       <c r="I53">
-        <v>2135725.918603347</v>
+        <v>2197970.72135433</v>
       </c>
       <c r="J53">
-        <v>0.3960710784345337</v>
+        <v>0.41370884817812642</v>
       </c>
       <c r="K53">
-        <v>0.28349661009061</v>
+        <v>0.28857055277068128</v>
       </c>
       <c r="L53">
-        <v>0.1168495789826183</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>0.1219445016483964</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>94</v>
       </c>
@@ -2406,34 +2492,34 @@
         <v>172173.4911268198</v>
       </c>
       <c r="D54">
-        <v>0.4199745673995849</v>
+        <v>0.41997456739958489</v>
       </c>
       <c r="E54">
-        <v>2430.046341778463</v>
+        <v>2430.0463417784631</v>
       </c>
       <c r="F54">
         <v>1042</v>
       </c>
       <c r="G54">
-        <v>0.1589476879969832</v>
+        <v>0.15894768799698319</v>
       </c>
       <c r="H54">
-        <v>1006915.592103265</v>
+        <v>1013451.831284916</v>
       </c>
       <c r="I54">
-        <v>6560765.44920264</v>
+        <v>6601599.6728686746</v>
       </c>
       <c r="J54">
-        <v>0.173618036667772</v>
+        <v>0.1781072530543866</v>
       </c>
       <c r="K54">
-        <v>0.1407494677792809</v>
+        <v>0.14204961051671741</v>
       </c>
       <c r="L54">
-        <v>0.05215640455909051</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>5.1954334544359937E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>94</v>
       </c>
@@ -2441,13 +2527,13 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>79181.67344692731</v>
+        <v>79181.673446927307</v>
       </c>
       <c r="D55">
-        <v>0.3324512978799746</v>
+        <v>0.33245129787997463</v>
       </c>
       <c r="E55">
-        <v>2311.464233161913</v>
+        <v>2311.4642331619129</v>
       </c>
       <c r="F55">
         <v>1290</v>
@@ -2456,22 +2542,22 @@
         <v>0.1867549931384361</v>
       </c>
       <c r="H55">
-        <v>976477.7519362342</v>
+        <v>1042462.217849463</v>
       </c>
       <c r="I55">
-        <v>5075717.621631657</v>
+        <v>5297109.6492027631</v>
       </c>
       <c r="J55">
-        <v>0.1607477721839791</v>
+        <v>0.18508991906208341</v>
       </c>
       <c r="K55">
-        <v>0.1430437195802879</v>
+        <v>0.152644857413889</v>
       </c>
       <c r="L55">
-        <v>0.07247450632706598</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>6.9670866260171771E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>94</v>
       </c>
@@ -2479,37 +2565,37 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>50790.11853372723</v>
+        <v>50790.118533727233</v>
       </c>
       <c r="D56">
-        <v>0.2749768439633162</v>
+        <v>0.27497684396331618</v>
       </c>
       <c r="E56">
-        <v>2309.965790213814</v>
+        <v>2309.9657902138142</v>
       </c>
       <c r="F56">
         <v>4470</v>
       </c>
       <c r="G56">
-        <v>0.229840840204151</v>
+        <v>0.22984084020415099</v>
       </c>
       <c r="H56">
-        <v>965945.2306555249</v>
+        <v>953337.2039037036</v>
       </c>
       <c r="I56">
-        <v>4092655.020978719</v>
+        <v>4130164.5172996791</v>
       </c>
       <c r="J56">
-        <v>0.2266426294773736</v>
+        <v>0.23351053613319431</v>
       </c>
       <c r="K56">
-        <v>0.1581063891110419</v>
+        <v>0.15945036181950101</v>
       </c>
       <c r="L56">
-        <v>0.06115153404005654</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>6.1269552204988961E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>94</v>
       </c>
@@ -2517,37 +2603,37 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>50177.39358027974</v>
+        <v>50177.393580279742</v>
       </c>
       <c r="D57">
-        <v>0.2848756501570298</v>
+        <v>0.28487565015702981</v>
       </c>
       <c r="E57">
-        <v>2386.864281428987</v>
+        <v>2386.8642814289869</v>
       </c>
       <c r="F57">
         <v>4810</v>
       </c>
       <c r="G57">
-        <v>0.2348457132927138</v>
+        <v>0.23484571329271381</v>
       </c>
       <c r="H57">
-        <v>942133.2627668954</v>
+        <v>968582.34581936302</v>
       </c>
       <c r="I57">
-        <v>3965200.15601379</v>
+        <v>3956231.9788114079</v>
       </c>
       <c r="J57">
-        <v>0.2348087525145683</v>
+        <v>0.23391922020095171</v>
       </c>
       <c r="K57">
-        <v>0.1808971769718351</v>
+        <v>0.17984003173801799</v>
       </c>
       <c r="L57">
-        <v>0.06271653871425452</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>6.241472530909583E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>94</v>
       </c>
@@ -2555,37 +2641,37 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>36154.68435557842</v>
+        <v>36154.684355578422</v>
       </c>
       <c r="D58">
-        <v>0.2386715652643351</v>
+        <v>0.23867156526433511</v>
       </c>
       <c r="E58">
-        <v>2361.828416879792</v>
+        <v>2361.8284168797918</v>
       </c>
       <c r="F58">
         <v>2021</v>
       </c>
       <c r="G58">
-        <v>0.2425431145944608</v>
+        <v>0.24254311459446079</v>
       </c>
       <c r="H58">
-        <v>941461.5533186996</v>
+        <v>932134.1508878856</v>
       </c>
       <c r="I58">
-        <v>3790523.592513402</v>
+        <v>3696912.7402552948</v>
       </c>
       <c r="J58">
-        <v>0.3497347598025234</v>
+        <v>0.3293661548745872</v>
       </c>
       <c r="K58">
-        <v>0.2187153570493703</v>
+        <v>0.21676085937438611</v>
       </c>
       <c r="L58">
-        <v>0.0921594675007815</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>9.0126192644311307E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>94</v>
       </c>
@@ -2593,37 +2679,37 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>36086.74098059832</v>
+        <v>36086.740980598319</v>
       </c>
       <c r="D59">
-        <v>0.219985287262337</v>
+        <v>0.21998528726233699</v>
       </c>
       <c r="E59">
-        <v>2887.568639144651</v>
+        <v>2887.5686391446511</v>
       </c>
       <c r="F59">
         <v>4513</v>
       </c>
       <c r="G59">
-        <v>0.2814646060547217</v>
+        <v>0.28146460605472168</v>
       </c>
       <c r="H59">
-        <v>921812.766932427</v>
+        <v>921343.34815657733</v>
       </c>
       <c r="I59">
-        <v>3221356.245455029</v>
+        <v>3290536.2504728101</v>
       </c>
       <c r="J59">
-        <v>0.1614585241062178</v>
+        <v>0.17472933189064671</v>
       </c>
       <c r="K59">
-        <v>0.1578893229561971</v>
+        <v>0.1587727265227474</v>
       </c>
       <c r="L59">
-        <v>0.05653941914987704</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>5.7875077161360769E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>94</v>
       </c>
@@ -2631,37 +2717,37 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>34676.46626250816</v>
+        <v>34676.466262508162</v>
       </c>
       <c r="D60">
-        <v>0.2124658597958662</v>
+        <v>0.21246585979586621</v>
       </c>
       <c r="E60">
-        <v>2696.280033606614</v>
+        <v>2696.2800336066139</v>
       </c>
       <c r="F60">
         <v>674</v>
       </c>
       <c r="G60">
-        <v>0.3373581042299397</v>
+        <v>0.33735810422993973</v>
       </c>
       <c r="H60">
-        <v>923913.1078202447</v>
+        <v>924230.28677101294</v>
       </c>
       <c r="I60">
-        <v>2649337.216827515</v>
+        <v>2640466.8214092799</v>
       </c>
       <c r="J60">
-        <v>0.3282056726897539</v>
+        <v>0.32530083697523698</v>
       </c>
       <c r="K60">
-        <v>0.2406193854916371</v>
+        <v>0.24020039449691041</v>
       </c>
       <c r="L60">
-        <v>0.09457693087685616</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>9.4438457513791929E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>94</v>
       </c>
@@ -2669,10 +2755,10 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>61862.01660542913</v>
+        <v>61862.016605429133</v>
       </c>
       <c r="D61">
-        <v>0.3209081651699706</v>
+        <v>0.32090816516997062</v>
       </c>
       <c r="E61">
         <v>1891.578170345816</v>
@@ -2681,25 +2767,25 @@
         <v>1066</v>
       </c>
       <c r="G61">
-        <v>0.2259619104169059</v>
+        <v>0.22596191041690589</v>
       </c>
       <c r="H61">
-        <v>1014281.236651045</v>
+        <v>962563.79444953077</v>
       </c>
       <c r="I61">
-        <v>4008836.442320908</v>
+        <v>3765805.4660697472</v>
       </c>
       <c r="J61">
-        <v>0.3333495742154021</v>
+        <v>0.29005121755421909</v>
       </c>
       <c r="K61">
-        <v>0.1751842758602879</v>
+        <v>0.15290810679344219</v>
       </c>
       <c r="L61">
-        <v>0.06506630521260583</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>6.0183576727505121E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>94</v>
       </c>
@@ -2707,37 +2793,37 @@
         <v>9</v>
       </c>
       <c r="C62">
-        <v>22427.08948300333</v>
+        <v>22427.089483003328</v>
       </c>
       <c r="D62">
-        <v>0.1612703423942032</v>
+        <v>0.16127034239420321</v>
       </c>
       <c r="E62">
-        <v>2818.710881610825</v>
+        <v>2818.7108816108248</v>
       </c>
       <c r="F62">
         <v>1266</v>
       </c>
       <c r="G62">
-        <v>0.296204236087828</v>
+        <v>0.29620423608782798</v>
       </c>
       <c r="H62">
-        <v>970081.285998692</v>
+        <v>938591.10299773503</v>
       </c>
       <c r="I62">
-        <v>3480797.995235895</v>
+        <v>3459902.0553378668</v>
       </c>
       <c r="J62">
-        <v>0.1749810776343887</v>
+        <v>0.1715299948922796</v>
       </c>
       <c r="K62">
-        <v>0.1725482077077806</v>
+        <v>0.17372765491244049</v>
       </c>
       <c r="L62">
-        <v>0.07315723356604295</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>7.257367217099979E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>94</v>
       </c>
@@ -2748,7 +2834,7 @@
         <v>19173.36204049435</v>
       </c>
       <c r="D63">
-        <v>0.1439506538264607</v>
+        <v>0.14395065382646069</v>
       </c>
       <c r="E63">
         <v>2828.291459069158</v>
@@ -2757,25 +2843,25 @@
         <v>2963</v>
       </c>
       <c r="G63">
-        <v>0.3029697858122538</v>
+        <v>0.30296978581225381</v>
       </c>
       <c r="H63">
-        <v>953390.989500574</v>
+        <v>881851.34904833126</v>
       </c>
       <c r="I63">
-        <v>3013321.995925664</v>
+        <v>2856440.7729830542</v>
       </c>
       <c r="J63">
-        <v>0.2381495487928378</v>
+        <v>0.20068133492777249</v>
       </c>
       <c r="K63">
-        <v>0.1455816650441115</v>
+        <v>0.14241798959645571</v>
       </c>
       <c r="L63">
-        <v>0.06881185442892525</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>6.4913089850611103E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>94</v>
       </c>
@@ -2783,13 +2869,13 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>13537.10617467722</v>
+        <v>13537.106174677219</v>
       </c>
       <c r="D64">
         <v>0.1116898111796162</v>
       </c>
       <c r="E64">
-        <v>2840.337331911063</v>
+        <v>2840.3373319110628</v>
       </c>
       <c r="F64">
         <v>5062</v>
@@ -2798,22 +2884,22 @@
         <v>0.3270754600007838</v>
       </c>
       <c r="H64">
-        <v>971317.5097868403</v>
+        <v>928617.96533885819</v>
       </c>
       <c r="I64">
-        <v>2898318.787887933</v>
+        <v>2777431.52720069</v>
       </c>
       <c r="J64">
-        <v>0.2880613017411814</v>
+        <v>0.25635864211075021</v>
       </c>
       <c r="K64">
-        <v>0.1755810096757253</v>
+        <v>0.17209407981860281</v>
       </c>
       <c r="L64">
-        <v>0.07956707364689582</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>7.7951811115154465E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>94</v>
       </c>
@@ -2821,7 +2907,7 @@
         <v>12</v>
       </c>
       <c r="C65">
-        <v>13941.53489318206</v>
+        <v>13941.534893182061</v>
       </c>
       <c r="D65">
         <v>0.1248370371254726</v>
@@ -2833,25 +2919,25 @@
         <v>6723</v>
       </c>
       <c r="G65">
-        <v>0.3571460307480148</v>
+        <v>0.35714603074801482</v>
       </c>
       <c r="H65">
-        <v>932993.9724582579</v>
+        <v>891283.07271289732</v>
       </c>
       <c r="I65">
-        <v>2558701.657690639</v>
+        <v>2459064.6200257321</v>
       </c>
       <c r="J65">
-        <v>0.3285639683599147</v>
+        <v>0.30271778179923658</v>
       </c>
       <c r="K65">
-        <v>0.2284840515589633</v>
+        <v>0.22463813198818219</v>
       </c>
       <c r="L65">
-        <v>0.1060397746432382</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>0.10006512608947279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>94</v>
       </c>
@@ -2865,31 +2951,31 @@
         <v>0.1066800213162338</v>
       </c>
       <c r="E66">
-        <v>3054.123846690565</v>
+        <v>3054.1238466905652</v>
       </c>
       <c r="F66">
         <v>2237</v>
       </c>
       <c r="G66">
-        <v>0.4117864208337345</v>
+        <v>0.41178642083373451</v>
       </c>
       <c r="H66">
-        <v>893607.8589016496</v>
+        <v>937546.45997647452</v>
       </c>
       <c r="I66">
-        <v>2243647.199293202</v>
+        <v>2344596.0595600479</v>
       </c>
       <c r="J66">
-        <v>0.3730055784848907</v>
+        <v>0.40103913965189109</v>
       </c>
       <c r="K66">
-        <v>0.2623553678629673</v>
+        <v>0.27075399021000701</v>
       </c>
       <c r="L66">
-        <v>0.100617724410833</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0.10809517922832609</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>95</v>
       </c>
@@ -2900,34 +2986,34 @@
         <v>188157.2682009899</v>
       </c>
       <c r="D67">
-        <v>0.4173482991464647</v>
+        <v>0.41734829914646471</v>
       </c>
       <c r="E67">
-        <v>2324.59086837656</v>
+        <v>2324.5908683765601</v>
       </c>
       <c r="F67">
         <v>1036</v>
       </c>
       <c r="G67">
-        <v>0.1566725962843444</v>
+        <v>0.15667259628434441</v>
       </c>
       <c r="H67">
-        <v>1087295.097007409</v>
+        <v>1109062.5797944469</v>
       </c>
       <c r="I67">
-        <v>7424347.89624462</v>
+        <v>7518645.0624143947</v>
       </c>
       <c r="J67">
-        <v>0.1830437786265051</v>
+        <v>0.1865141583083518</v>
       </c>
       <c r="K67">
-        <v>0.1489020803398135</v>
+        <v>0.15632853337125749</v>
       </c>
       <c r="L67">
-        <v>0.06144576907453148</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>6.259114111454521E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>95</v>
       </c>
@@ -2935,13 +3021,13 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>83922.42191484784</v>
+        <v>83922.421914847844</v>
       </c>
       <c r="D68">
-        <v>0.3464081856272005</v>
+        <v>0.34640818562720049</v>
       </c>
       <c r="E68">
-        <v>2089.462870805755</v>
+        <v>2089.4628708057548</v>
       </c>
       <c r="F68">
         <v>1287</v>
@@ -2950,22 +3036,22 @@
         <v>0.1755133381689985</v>
       </c>
       <c r="H68">
-        <v>1052305.200821515</v>
+        <v>1120733.9516265469</v>
       </c>
       <c r="I68">
-        <v>5789366.175908161</v>
+        <v>6009921.8695297791</v>
       </c>
       <c r="J68">
-        <v>0.2424769461506805</v>
+        <v>0.26724589997092008</v>
       </c>
       <c r="K68">
-        <v>0.1586364227409854</v>
+        <v>0.16806209546530659</v>
       </c>
       <c r="L68">
-        <v>0.08024815632381416</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>7.9572267649677508E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>95</v>
       </c>
@@ -2973,37 +3059,37 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>55633.38038826008</v>
+        <v>55633.380388260077</v>
       </c>
       <c r="D69">
         <v>0.2755224574080134</v>
       </c>
       <c r="E69">
-        <v>2324.37012748258</v>
+        <v>2324.3701274825798</v>
       </c>
       <c r="F69">
         <v>4478</v>
       </c>
       <c r="G69">
-        <v>0.223131818927903</v>
+        <v>0.22313181892790299</v>
       </c>
       <c r="H69">
-        <v>1031569.774351244</v>
+        <v>1032630.940005854</v>
       </c>
       <c r="I69">
-        <v>4493276.527495094</v>
+        <v>4596262.0904439641</v>
       </c>
       <c r="J69">
-        <v>0.2298548184773737</v>
+        <v>0.24082123863509169</v>
       </c>
       <c r="K69">
-        <v>0.1419259775820603</v>
+        <v>0.1512691534587412</v>
       </c>
       <c r="L69">
-        <v>0.06243623462283753</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>6.3815333844439812E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>95</v>
       </c>
@@ -3011,37 +3097,37 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>54242.44565941027</v>
+        <v>54242.445659410267</v>
       </c>
       <c r="D70">
-        <v>0.2722243361432303</v>
+        <v>0.27222433614323033</v>
       </c>
       <c r="E70">
-        <v>2536.238566717593</v>
+        <v>2536.2385667175931</v>
       </c>
       <c r="F70">
         <v>4789</v>
       </c>
       <c r="G70">
-        <v>0.2441844079022978</v>
+        <v>0.24418440790229781</v>
       </c>
       <c r="H70">
-        <v>1009770.897133251</v>
+        <v>1030885.075254334</v>
       </c>
       <c r="I70">
-        <v>4370277.474284487</v>
+        <v>4341228.7058795048</v>
       </c>
       <c r="J70">
-        <v>0.2335830940144416</v>
+        <v>0.22940928434144831</v>
       </c>
       <c r="K70">
-        <v>0.1913772976298113</v>
+        <v>0.19010010722697851</v>
       </c>
       <c r="L70">
-        <v>0.07790610536579669</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>7.7743607743450044E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>95</v>
       </c>
@@ -3049,13 +3135,13 @@
         <v>5</v>
       </c>
       <c r="C71">
-        <v>38146.34741198878</v>
+        <v>38146.347411988783</v>
       </c>
       <c r="D71">
         <v>0.22919140259522</v>
       </c>
       <c r="E71">
-        <v>2444.944376766299</v>
+        <v>2444.9443767662988</v>
       </c>
       <c r="F71">
         <v>1979</v>
@@ -3064,22 +3150,22 @@
         <v>0.2442624832533726</v>
       </c>
       <c r="H71">
-        <v>1000861.130432758</v>
+        <v>995858.65814107098</v>
       </c>
       <c r="I71">
-        <v>4089393.959720972</v>
+        <v>4066314.5951417009</v>
       </c>
       <c r="J71">
-        <v>0.3192513775822805</v>
+        <v>0.31608912115166249</v>
       </c>
       <c r="K71">
-        <v>0.220036571170493</v>
+        <v>0.21833410398122999</v>
       </c>
       <c r="L71">
-        <v>0.1095085635589746</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>0.1093068001952891</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>95</v>
       </c>
@@ -3087,37 +3173,37 @@
         <v>6</v>
       </c>
       <c r="C72">
-        <v>38023.99528969722</v>
+        <v>38023.995289697217</v>
       </c>
       <c r="D72">
-        <v>0.2304096769290706</v>
+        <v>0.23040967692907061</v>
       </c>
       <c r="E72">
-        <v>2698.139513506845</v>
+        <v>2698.1395135068451</v>
       </c>
       <c r="F72">
         <v>4500</v>
       </c>
       <c r="G72">
-        <v>0.2687737416394281</v>
+        <v>0.26877374163942808</v>
       </c>
       <c r="H72">
-        <v>958299.0218210182</v>
+        <v>959598.57694667985</v>
       </c>
       <c r="I72">
-        <v>3530718.344367571</v>
+        <v>3552018.1487365142</v>
       </c>
       <c r="J72">
-        <v>0.2182953684959368</v>
+        <v>0.2226661722112529</v>
       </c>
       <c r="K72">
-        <v>0.1387205539741988</v>
+        <v>0.13926091535221219</v>
       </c>
       <c r="L72">
-        <v>0.05639413869474694</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>5.6593728863725573E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>95</v>
       </c>
@@ -3125,37 +3211,37 @@
         <v>7</v>
       </c>
       <c r="C73">
-        <v>36870.25255674517</v>
+        <v>36870.252556745167</v>
       </c>
       <c r="D73">
-        <v>0.2230429312000795</v>
+        <v>0.22304293120007951</v>
       </c>
       <c r="E73">
-        <v>2666.601541382537</v>
+        <v>2666.6015413825371</v>
       </c>
       <c r="F73">
         <v>679</v>
       </c>
       <c r="G73">
-        <v>0.3358462856256205</v>
+        <v>0.33584628562562052</v>
       </c>
       <c r="H73">
-        <v>974661.6774877927</v>
+        <v>1020951.585700854</v>
       </c>
       <c r="I73">
-        <v>2883487.892658114</v>
+        <v>3018901.016801944</v>
       </c>
       <c r="J73">
-        <v>0.3602039249199782</v>
+        <v>0.38790745326201792</v>
       </c>
       <c r="K73">
-        <v>0.2799862859815387</v>
+        <v>0.28854507410198371</v>
       </c>
       <c r="L73">
-        <v>0.115350251661933</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>0.1220364504661641</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>95</v>
       </c>
@@ -3163,37 +3249,37 @@
         <v>8</v>
       </c>
       <c r="C74">
-        <v>63734.84865386769</v>
+        <v>63734.848653867688</v>
       </c>
       <c r="D74">
-        <v>0.3004352507881493</v>
+        <v>0.30043525078814931</v>
       </c>
       <c r="E74">
-        <v>2101.428328522055</v>
+        <v>2101.4283285220549</v>
       </c>
       <c r="F74">
         <v>1050</v>
       </c>
       <c r="G74">
-        <v>0.2185610008007152</v>
+        <v>0.21856100080071519</v>
       </c>
       <c r="H74">
-        <v>1089796.466349785</v>
+        <v>1029701.678026192</v>
       </c>
       <c r="I74">
-        <v>4507793.004198423</v>
+        <v>4322777.1042713104</v>
       </c>
       <c r="J74">
-        <v>0.3793101355290189</v>
+        <v>0.3354338628562939</v>
       </c>
       <c r="K74">
-        <v>0.1399433970350142</v>
+        <v>0.13272912741930831</v>
       </c>
       <c r="L74">
-        <v>0.07887097348719015</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>8.1729483306657358E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>95</v>
       </c>
@@ -3201,10 +3287,10 @@
         <v>9</v>
       </c>
       <c r="C75">
-        <v>27853.03970718043</v>
+        <v>27853.039707180429</v>
       </c>
       <c r="D75">
-        <v>0.181640171620669</v>
+        <v>0.18164017162066901</v>
       </c>
       <c r="E75">
         <v>2717.341519573924</v>
@@ -3213,25 +3299,25 @@
         <v>1271</v>
       </c>
       <c r="G75">
-        <v>0.2730943671206161</v>
+        <v>0.27309436712061608</v>
       </c>
       <c r="H75">
-        <v>1017581.477673384</v>
+        <v>1010686.749050098</v>
       </c>
       <c r="I75">
-        <v>3808494.751882611</v>
+        <v>3827336.8643375998</v>
       </c>
       <c r="J75">
-        <v>0.1758789995539277</v>
+        <v>0.18021830881207909</v>
       </c>
       <c r="K75">
-        <v>0.1565829302575907</v>
+        <v>0.15600227198173011</v>
       </c>
       <c r="L75">
-        <v>0.07738219827790603</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>7.6349260492704463E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>95</v>
       </c>
@@ -3239,37 +3325,37 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>22331.11164610063</v>
+        <v>22331.111646100631</v>
       </c>
       <c r="D76">
-        <v>0.1685999719346712</v>
+        <v>0.16859997193467119</v>
       </c>
       <c r="E76">
-        <v>2579.380577363592</v>
+        <v>2579.3805773635918</v>
       </c>
       <c r="F76">
         <v>2970</v>
       </c>
       <c r="G76">
-        <v>0.3091700127915645</v>
+        <v>0.30917001279156447</v>
       </c>
       <c r="H76">
-        <v>1019215.349992922</v>
+        <v>979327.48009745078</v>
       </c>
       <c r="I76">
-        <v>3388955.635105957</v>
+        <v>3294658.1209882172</v>
       </c>
       <c r="J76">
-        <v>0.2891912102229526</v>
+        <v>0.26680220519140868</v>
       </c>
       <c r="K76">
-        <v>0.1506011737127238</v>
+        <v>0.14368947515130309</v>
       </c>
       <c r="L76">
-        <v>0.06300157478729522</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>6.1713421882755928E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>95</v>
       </c>
@@ -3283,31 +3369,31 @@
         <v>0.1154487091651189</v>
       </c>
       <c r="E77">
-        <v>2748.582380804767</v>
+        <v>2748.5823808047671</v>
       </c>
       <c r="F77">
         <v>5058</v>
       </c>
       <c r="G77">
-        <v>0.3214107738799185</v>
+        <v>0.32141077387991851</v>
       </c>
       <c r="H77">
-        <v>1048535.309619692</v>
+        <v>988713.13746782695</v>
       </c>
       <c r="I77">
-        <v>3224515.154544414</v>
+        <v>3075433.4049543231</v>
       </c>
       <c r="J77">
-        <v>0.3188943911365234</v>
+        <v>0.28938970949278242</v>
       </c>
       <c r="K77">
-        <v>0.2059256698438799</v>
+        <v>0.1972464197689183</v>
       </c>
       <c r="L77">
-        <v>0.1080463452192932</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>0.107229567771897</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>95</v>
       </c>
@@ -3321,31 +3407,31 @@
         <v>0.1261266026336334</v>
       </c>
       <c r="E78">
-        <v>2833.049462423914</v>
+        <v>2833.0494624239141</v>
       </c>
       <c r="F78">
         <v>6668</v>
       </c>
       <c r="G78">
-        <v>0.3507624090074234</v>
+        <v>0.35076240900742339</v>
       </c>
       <c r="H78">
-        <v>963333.3989605014</v>
+        <v>956235.10058457218</v>
       </c>
       <c r="I78">
-        <v>2730760.084444812</v>
+        <v>2700005.693239457</v>
       </c>
       <c r="J78">
-        <v>0.3174755060683812</v>
+        <v>0.30786574386668242</v>
       </c>
       <c r="K78">
-        <v>0.201543570108549</v>
+        <v>0.20089132586192709</v>
       </c>
       <c r="L78">
-        <v>0.08388686417299777</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>8.3306552884243268E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>95</v>
       </c>
@@ -3353,37 +3439,37 @@
         <v>13</v>
       </c>
       <c r="C79">
-        <v>14809.00701370437</v>
+        <v>14809.007013704369</v>
       </c>
       <c r="D79">
         <v>0.1083684753676513</v>
       </c>
       <c r="E79">
-        <v>2934.420728108308</v>
+        <v>2934.4207281083081</v>
       </c>
       <c r="F79">
         <v>2241</v>
       </c>
       <c r="G79">
-        <v>0.4111757685031905</v>
+        <v>0.41117576850319049</v>
       </c>
       <c r="H79">
-        <v>982371.3093292094</v>
+        <v>987005.93672012712</v>
       </c>
       <c r="I79">
-        <v>2462571.252083067</v>
+        <v>2493042.8481339072</v>
       </c>
       <c r="J79">
-        <v>0.3871574035052533</v>
+        <v>0.39289110445026981</v>
       </c>
       <c r="K79">
-        <v>0.2800254540857928</v>
+        <v>0.28409523540354198</v>
       </c>
       <c r="L79">
-        <v>0.1161396358173871</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>0.1185183493509159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>96</v>
       </c>
@@ -3391,13 +3477,13 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>217367.3874037703</v>
+        <v>217367.38740377029</v>
       </c>
       <c r="D80">
-        <v>0.430461998242018</v>
+        <v>0.43046199824201797</v>
       </c>
       <c r="E80">
-        <v>2447.562457607262</v>
+        <v>2447.5624576072619</v>
       </c>
       <c r="F80">
         <v>989</v>
@@ -3406,22 +3492,22 @@
         <v>0.1613205878102533</v>
       </c>
       <c r="H80">
-        <v>1200697.289470842</v>
+        <v>1204472.513956628</v>
       </c>
       <c r="I80">
-        <v>8256894.345168847</v>
+        <v>8238327.1460433099</v>
       </c>
       <c r="J80">
-        <v>0.1691527120573786</v>
+        <v>0.1684566271169568</v>
       </c>
       <c r="K80">
-        <v>0.154751765869367</v>
+        <v>0.15398122508859349</v>
       </c>
       <c r="L80">
-        <v>0.07897614548363698</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>7.8902242727556415E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>96</v>
       </c>
@@ -3429,10 +3515,10 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>91682.47920081175</v>
+        <v>91682.479200811751</v>
       </c>
       <c r="D81">
-        <v>0.3188379696406966</v>
+        <v>0.31883796964069661</v>
       </c>
       <c r="E81">
         <v>2375.833879800889</v>
@@ -3441,25 +3527,25 @@
         <v>1298</v>
       </c>
       <c r="G81">
-        <v>0.1878015119184409</v>
+        <v>0.18780151191844091</v>
       </c>
       <c r="H81">
-        <v>1215411.375160987</v>
+        <v>1167565.8944534559</v>
       </c>
       <c r="I81">
-        <v>6845949.337734445</v>
+        <v>6404803.2626103666</v>
       </c>
       <c r="J81">
-        <v>0.2418965627497708</v>
+        <v>0.20492424987341201</v>
       </c>
       <c r="K81">
-        <v>0.1814631990744608</v>
+        <v>0.18050199518096319</v>
       </c>
       <c r="L81">
-        <v>0.08296704176210513</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>7.0546234655462142E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>96</v>
       </c>
@@ -3467,37 +3553,37 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>61380.60859232707</v>
+        <v>61380.608592327073</v>
       </c>
       <c r="D82">
-        <v>0.2718053992149462</v>
+        <v>0.27180539921494629</v>
       </c>
       <c r="E82">
-        <v>2352.205628427513</v>
+        <v>2352.2056284275141</v>
       </c>
       <c r="F82">
         <v>4448</v>
       </c>
       <c r="G82">
-        <v>0.2223577566880404</v>
+        <v>0.22235775668804039</v>
       </c>
       <c r="H82">
-        <v>1126961.314462044</v>
+        <v>1165402.6602500209</v>
       </c>
       <c r="I82">
-        <v>5047016.132699835</v>
+        <v>5315628.9220653996</v>
       </c>
       <c r="J82">
-        <v>0.2271351425136992</v>
+        <v>0.26003465746086901</v>
       </c>
       <c r="K82">
-        <v>0.1463362257434974</v>
+        <v>0.1558583022683584</v>
       </c>
       <c r="L82">
-        <v>0.05793524100968436</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>6.2668860814091371E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>96</v>
       </c>
@@ -3505,37 +3591,37 @@
         <v>4</v>
       </c>
       <c r="C83">
-        <v>58194.01265068736</v>
+        <v>58194.012650687357</v>
       </c>
       <c r="D83">
-        <v>0.2559803024650982</v>
+        <v>0.25598030246509818</v>
       </c>
       <c r="E83">
-        <v>2453.493701623671</v>
+        <v>2453.4937016236709</v>
       </c>
       <c r="F83">
         <v>4824</v>
       </c>
       <c r="G83">
-        <v>0.2308206413953031</v>
+        <v>0.23082064139530309</v>
       </c>
       <c r="H83">
-        <v>1128581.656523899</v>
+        <v>1120760.5435239549</v>
       </c>
       <c r="I83">
-        <v>4917795.146726779</v>
+        <v>4855855.9762913231</v>
       </c>
       <c r="J83">
-        <v>0.2364825976284447</v>
+        <v>0.22709848236078631</v>
       </c>
       <c r="K83">
-        <v>0.1738219963671542</v>
+        <v>0.17350065684913499</v>
       </c>
       <c r="L83">
-        <v>0.07678919634395327</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>7.6196514201495938E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>96</v>
       </c>
@@ -3543,37 +3629,37 @@
         <v>5</v>
       </c>
       <c r="C84">
-        <v>39010.66836701689</v>
+        <v>39010.668367016893</v>
       </c>
       <c r="D84">
-        <v>0.221556476925185</v>
+        <v>0.22155647692518499</v>
       </c>
       <c r="E84">
-        <v>2518.484866212466</v>
+        <v>2518.4848662124659</v>
       </c>
       <c r="F84">
         <v>1935</v>
       </c>
       <c r="G84">
-        <v>0.2497961953977927</v>
+        <v>0.24979619539779269</v>
       </c>
       <c r="H84">
-        <v>1087454.254841874</v>
+        <v>1075551.238893565</v>
       </c>
       <c r="I84">
-        <v>4462170.071199841</v>
+        <v>4436324.1783917118</v>
       </c>
       <c r="J84">
-        <v>0.3242039044343301</v>
+        <v>0.32169585676302542</v>
       </c>
       <c r="K84">
-        <v>0.2069020496736578</v>
+        <v>0.2042279810790108</v>
       </c>
       <c r="L84">
-        <v>0.07510735702416646</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>7.4140548893550914E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>96</v>
       </c>
@@ -3581,10 +3667,10 @@
         <v>6</v>
       </c>
       <c r="C85">
-        <v>40446.49714670232</v>
+        <v>40446.497146702321</v>
       </c>
       <c r="D85">
-        <v>0.2104031248430261</v>
+        <v>0.21040312484302609</v>
       </c>
       <c r="E85">
         <v>2712.581462479628</v>
@@ -3593,25 +3679,25 @@
         <v>4480</v>
       </c>
       <c r="G85">
-        <v>0.2594809843045808</v>
+        <v>0.25948098430458078</v>
       </c>
       <c r="H85">
-        <v>1035060.411611701</v>
+        <v>1040184.62400762</v>
       </c>
       <c r="I85">
-        <v>3987762.52505012</v>
+        <v>4022081.5857676142</v>
       </c>
       <c r="J85">
-        <v>0.2362233145142207</v>
+        <v>0.2416295301663175</v>
       </c>
       <c r="K85">
-        <v>0.1581711702692658</v>
+        <v>0.16044514512984709</v>
       </c>
       <c r="L85">
-        <v>0.0805801264523507</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>8.0261486260018236E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>96</v>
       </c>
@@ -3619,37 +3705,37 @@
         <v>7</v>
       </c>
       <c r="C86">
-        <v>43957.75080405606</v>
+        <v>43957.750804056057</v>
       </c>
       <c r="D86">
-        <v>0.2208147481819571</v>
+        <v>0.22081474818195709</v>
       </c>
       <c r="E86">
-        <v>2822.089215051346</v>
+        <v>2822.0892150513459</v>
       </c>
       <c r="F86">
         <v>676</v>
       </c>
       <c r="G86">
-        <v>0.3226406627558424</v>
+        <v>0.32264066275584241</v>
       </c>
       <c r="H86">
-        <v>1110249.898614156</v>
+        <v>1057542.2538202021</v>
       </c>
       <c r="I86">
-        <v>3310490.285624152</v>
+        <v>3158720.1789447009</v>
       </c>
       <c r="J86">
-        <v>0.3717895104319154</v>
+        <v>0.34773528340943638</v>
       </c>
       <c r="K86">
-        <v>0.2659426093751969</v>
+        <v>0.25064536406660898</v>
       </c>
       <c r="L86">
-        <v>0.1268541204694816</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>0.1221164175875748</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>96</v>
       </c>
@@ -3657,37 +3743,37 @@
         <v>8</v>
       </c>
       <c r="C87">
-        <v>72984.90169733106</v>
+        <v>72984.901697331064</v>
       </c>
       <c r="D87">
-        <v>0.3031727716971807</v>
+        <v>0.30317277169718071</v>
       </c>
       <c r="E87">
-        <v>2467.831713585614</v>
+        <v>2467.8317135856141</v>
       </c>
       <c r="F87">
         <v>1040</v>
       </c>
       <c r="G87">
-        <v>0.2573886175595744</v>
+        <v>0.25738861755957437</v>
       </c>
       <c r="H87">
-        <v>1203825.192029561</v>
+        <v>1134615.0458439051</v>
       </c>
       <c r="I87">
-        <v>4964552.793260982</v>
+        <v>4719384.0771635594</v>
       </c>
       <c r="J87">
-        <v>0.3911490359790068</v>
+        <v>0.35864310665930749</v>
       </c>
       <c r="K87">
-        <v>0.1838262714927685</v>
+        <v>0.1625566862403475</v>
       </c>
       <c r="L87">
-        <v>0.07074496879743145</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>6.4692636424105693E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>96</v>
       </c>
@@ -3695,37 +3781,37 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>32880.84605274735</v>
+        <v>32880.846052747351</v>
       </c>
       <c r="D88">
-        <v>0.1801274339155498</v>
+        <v>0.18012743391554981</v>
       </c>
       <c r="E88">
-        <v>2846.626338764369</v>
+        <v>2846.6263387643689</v>
       </c>
       <c r="F88">
         <v>1249</v>
       </c>
       <c r="G88">
-        <v>0.2676311904335231</v>
+        <v>0.26763119043352313</v>
       </c>
       <c r="H88">
-        <v>1123450.785190651</v>
+        <v>1075810.1144423611</v>
       </c>
       <c r="I88">
-        <v>4396128.338909859</v>
+        <v>4255907.6625491157</v>
       </c>
       <c r="J88">
-        <v>0.1755084007594114</v>
+        <v>0.15524181775607551</v>
       </c>
       <c r="K88">
-        <v>0.1488061350875634</v>
+        <v>0.1494533278574067</v>
       </c>
       <c r="L88">
-        <v>0.08425101836755766</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>8.8116980617549509E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>96</v>
       </c>
@@ -3733,10 +3819,10 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>25630.75451625581</v>
+        <v>25630.754516255809</v>
       </c>
       <c r="D89">
-        <v>0.1794684813048371</v>
+        <v>0.17946848130483711</v>
       </c>
       <c r="E89">
         <v>2604.046503711967</v>
@@ -3748,22 +3834,22 @@
         <v>0.3028359264046534</v>
       </c>
       <c r="H89">
-        <v>1116587.865023703</v>
+        <v>1066086.4695049729</v>
       </c>
       <c r="I89">
-        <v>3772052.300551577</v>
+        <v>3682976.8511577169</v>
       </c>
       <c r="J89">
-        <v>0.259404585083124</v>
+        <v>0.24110522368412751</v>
       </c>
       <c r="K89">
-        <v>0.1743166205092389</v>
+        <v>0.17362720388447511</v>
       </c>
       <c r="L89">
-        <v>0.06670163565775067</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>6.5228599108841365E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>96</v>
       </c>
@@ -3771,37 +3857,37 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <v>15962.75736282086</v>
+        <v>15962.757362820859</v>
       </c>
       <c r="D90">
-        <v>0.117512060199754</v>
+        <v>0.11751206019975401</v>
       </c>
       <c r="E90">
-        <v>2757.954004417598</v>
+        <v>2757.9540044175978</v>
       </c>
       <c r="F90">
         <v>5079</v>
       </c>
       <c r="G90">
-        <v>0.3233308886510303</v>
+        <v>0.32333088865103032</v>
       </c>
       <c r="H90">
-        <v>1215222.93429787</v>
+        <v>1118290.972545458</v>
       </c>
       <c r="I90">
-        <v>3675537.809581121</v>
+        <v>3583635.8808286772</v>
       </c>
       <c r="J90">
-        <v>0.3472361129607934</v>
+        <v>0.32556832386338552</v>
       </c>
       <c r="K90">
-        <v>0.2012435672742352</v>
+        <v>0.2021989021341255</v>
       </c>
       <c r="L90">
-        <v>0.1047569768778448</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>0.1007972437102585</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>96</v>
       </c>
@@ -3812,34 +3898,34 @@
         <v>17055.911558795</v>
       </c>
       <c r="D91">
-        <v>0.1276644515325153</v>
+        <v>0.12766445153251529</v>
       </c>
       <c r="E91">
-        <v>2765.997226621707</v>
+        <v>2765.9972266217069</v>
       </c>
       <c r="F91">
         <v>6613</v>
       </c>
       <c r="G91">
-        <v>0.3422506089605934</v>
+        <v>0.34225060896059339</v>
       </c>
       <c r="H91">
-        <v>1042376.669453729</v>
+        <v>1010269.7885823119</v>
       </c>
       <c r="I91">
-        <v>3033941.026584301</v>
+        <v>2937734.587663291</v>
       </c>
       <c r="J91">
-        <v>0.3299278372706903</v>
+        <v>0.30825750596004198</v>
       </c>
       <c r="K91">
-        <v>0.1951319473654105</v>
+        <v>0.18714656422559409</v>
       </c>
       <c r="L91">
-        <v>0.08086929279299356</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>7.7794778382088703E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>96</v>
       </c>
@@ -3847,13 +3933,13 @@
         <v>13</v>
       </c>
       <c r="C92">
-        <v>16601.13994153449</v>
+        <v>16601.139941534489</v>
       </c>
       <c r="D92">
         <v>0.1133960878779488</v>
       </c>
       <c r="E92">
-        <v>2996.682157055169</v>
+        <v>2996.6821570551688</v>
       </c>
       <c r="F92">
         <v>2235</v>
@@ -3862,22 +3948,22 @@
         <v>0.3775202112796624</v>
       </c>
       <c r="H92">
-        <v>1093455.760790512</v>
+        <v>1032282.748342279</v>
       </c>
       <c r="I92">
-        <v>2841010.819375614</v>
+        <v>2707003.2472877861</v>
       </c>
       <c r="J92">
-        <v>0.4226439266105664</v>
+        <v>0.39816938667593232</v>
       </c>
       <c r="K92">
-        <v>0.2938383181760749</v>
+        <v>0.28179910984795242</v>
       </c>
       <c r="L92">
-        <v>0.1369911865087841</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>0.1253078274378924</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>97</v>
       </c>
@@ -3885,37 +3971,37 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>287291.6331889355</v>
+        <v>287291.63318893552</v>
       </c>
       <c r="D93">
         <v>0.4685619609491346</v>
       </c>
       <c r="E93">
-        <v>2375.165358592716</v>
+        <v>2375.1653585927161</v>
       </c>
       <c r="F93">
         <v>1016</v>
       </c>
       <c r="G93">
-        <v>0.1541436482496288</v>
+        <v>0.15414364824962881</v>
       </c>
       <c r="H93">
-        <v>1548694.456635501</v>
+        <v>1542723.021441455</v>
       </c>
       <c r="I93">
-        <v>10940588.85549476</v>
+        <v>10856359.362210941</v>
       </c>
       <c r="J93">
-        <v>0.1600191887561514</v>
+        <v>0.15631306900433439</v>
       </c>
       <c r="K93">
-        <v>0.1942831704332038</v>
+        <v>0.19454317438063581</v>
       </c>
       <c r="L93">
-        <v>0.07545394878706041</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>7.517500791807788E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>97</v>
       </c>
@@ -3923,10 +4009,10 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <v>107483.9145515818</v>
+        <v>107483.91455158179</v>
       </c>
       <c r="D94">
-        <v>0.3288825748430859</v>
+        <v>0.32888257484308592</v>
       </c>
       <c r="E94">
         <v>2170.939762462127</v>
@@ -3935,25 +4021,25 @@
         <v>1385</v>
       </c>
       <c r="G94">
-        <v>0.1950306006723843</v>
+        <v>0.19503060067238431</v>
       </c>
       <c r="H94">
-        <v>1491182.967911287</v>
+        <v>1677596.8908524381</v>
       </c>
       <c r="I94">
-        <v>8171973.192454522</v>
+        <v>9058399.0197176822</v>
       </c>
       <c r="J94">
-        <v>0.2786817007709032</v>
+        <v>0.3477428131217904</v>
       </c>
       <c r="K94">
-        <v>0.1775003694371574</v>
+        <v>0.20148729168388621</v>
       </c>
       <c r="L94">
-        <v>0.07351166015800442</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>8.2546115479791321E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>97</v>
       </c>
@@ -3961,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>74151.06002441733</v>
+        <v>74151.060024417326</v>
       </c>
       <c r="D95">
-        <v>0.2790069762698295</v>
+        <v>0.27900697626982951</v>
       </c>
       <c r="E95">
         <v>2231.49375734772</v>
@@ -3973,25 +4059,25 @@
         <v>4699</v>
       </c>
       <c r="G95">
-        <v>0.228714911163808</v>
+        <v>0.22871491116380799</v>
       </c>
       <c r="H95">
-        <v>1471797.905346911</v>
+        <v>1453080.4035711151</v>
       </c>
       <c r="I95">
-        <v>6675502.600125527</v>
+        <v>6716556.103544211</v>
       </c>
       <c r="J95">
-        <v>0.3220669061058959</v>
+        <v>0.32866511163157452</v>
       </c>
       <c r="K95">
-        <v>0.1742716640703555</v>
+        <v>0.17432140944590371</v>
       </c>
       <c r="L95">
-        <v>0.0684582196597428</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>6.8534189797263126E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>97</v>
       </c>
@@ -3999,13 +4085,13 @@
         <v>4</v>
       </c>
       <c r="C96">
-        <v>69491.21567345248</v>
+        <v>69491.215673452476</v>
       </c>
       <c r="D96">
-        <v>0.2608260166331065</v>
+        <v>0.26082601663310651</v>
       </c>
       <c r="E96">
-        <v>2403.685339406264</v>
+        <v>2403.6853394062641</v>
       </c>
       <c r="F96">
         <v>5349</v>
@@ -4014,22 +4100,22 @@
         <v>0.2420302503443153</v>
       </c>
       <c r="H96">
-        <v>1447980.832102899</v>
+        <v>1416065.642401064</v>
       </c>
       <c r="I96">
-        <v>6358931.83554838</v>
+        <v>6280429.5722560203</v>
       </c>
       <c r="J96">
-        <v>0.3062197777054363</v>
+        <v>0.29652720735453059</v>
       </c>
       <c r="K96">
-        <v>0.1938879167006571</v>
+        <v>0.1924773905310076</v>
       </c>
       <c r="L96">
-        <v>0.086586464780222</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>8.5716166865863044E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4037,10 +4123,10 @@
         <v>5</v>
       </c>
       <c r="C97">
-        <v>49788.68707167533</v>
+        <v>49788.687071675333</v>
       </c>
       <c r="D97">
-        <v>0.2305902354697824</v>
+        <v>0.23059023546978241</v>
       </c>
       <c r="E97">
         <v>2396.856650942017</v>
@@ -4049,25 +4135,25 @@
         <v>1911</v>
       </c>
       <c r="G97">
-        <v>0.2510819423909749</v>
+        <v>0.25108194239097492</v>
       </c>
       <c r="H97">
-        <v>1395251.269043965</v>
+        <v>1384484.8034320199</v>
       </c>
       <c r="I97">
-        <v>5695739.326177285</v>
+        <v>5723274.2498080777</v>
       </c>
       <c r="J97">
-        <v>0.359340272861571</v>
+        <v>0.36049982296718841</v>
       </c>
       <c r="K97">
-        <v>0.2100794893720075</v>
+        <v>0.21297078849777351</v>
       </c>
       <c r="L97">
-        <v>0.08919756645650931</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>9.0102012442190127E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4075,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="C98">
-        <v>49867.06430890906</v>
+        <v>49867.064308909059</v>
       </c>
       <c r="D98">
-        <v>0.2196430662106607</v>
+        <v>0.21964306621066071</v>
       </c>
       <c r="E98">
         <v>2517.739498295075</v>
@@ -4087,25 +4173,25 @@
         <v>5147</v>
       </c>
       <c r="G98">
-        <v>0.2623324446193308</v>
+        <v>0.26233244461933081</v>
       </c>
       <c r="H98">
-        <v>1389208.969035141</v>
+        <v>1374867.3603457119</v>
       </c>
       <c r="I98">
-        <v>5342908.082012084</v>
+        <v>5425161.8189841723</v>
       </c>
       <c r="J98">
-        <v>0.2793526532646092</v>
+        <v>0.28874710773950862</v>
       </c>
       <c r="K98">
-        <v>0.1617269948993245</v>
+        <v>0.16655058300280329</v>
       </c>
       <c r="L98">
-        <v>0.06904027346561774</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>7.0486569876905533E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4113,37 +4199,37 @@
         <v>7</v>
       </c>
       <c r="C99">
-        <v>54496.050980309</v>
+        <v>54496.050980309003</v>
       </c>
       <c r="D99">
-        <v>0.2413411505055582</v>
+        <v>0.24134115050555821</v>
       </c>
       <c r="E99">
-        <v>2655.418124655571</v>
+        <v>2655.4181246555709</v>
       </c>
       <c r="F99">
         <v>801</v>
       </c>
       <c r="G99">
-        <v>0.3075008938430617</v>
+        <v>0.30750089384306167</v>
       </c>
       <c r="H99">
-        <v>1432893.6433481</v>
+        <v>1399030.4934314659</v>
       </c>
       <c r="I99">
-        <v>4378439.50719121</v>
+        <v>4282261.3145989031</v>
       </c>
       <c r="J99">
-        <v>0.4739610686909203</v>
+        <v>0.46170493981700639</v>
       </c>
       <c r="K99">
-        <v>0.3041202474689188</v>
+        <v>0.29725381397647771</v>
       </c>
       <c r="L99">
-        <v>0.1710966599148979</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>0.16969642477138039</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>97</v>
       </c>
@@ -4154,7 +4240,7 @@
         <v>76558.92151281728</v>
       </c>
       <c r="D100">
-        <v>0.2829388034695571</v>
+        <v>0.28293880346955708</v>
       </c>
       <c r="E100">
         <v>2287.914195690631</v>
@@ -4163,25 +4249,25 @@
         <v>1032</v>
       </c>
       <c r="G100">
-        <v>0.2689338860509496</v>
+        <v>0.26893388605094959</v>
       </c>
       <c r="H100">
-        <v>1550866.416760001</v>
+        <v>1389772.710882142</v>
       </c>
       <c r="I100">
-        <v>6319045.775432536</v>
+        <v>5750120.7324849674</v>
       </c>
       <c r="J100">
-        <v>0.4161929690746804</v>
+        <v>0.32107323624309791</v>
       </c>
       <c r="K100">
-        <v>0.2079389501743182</v>
+        <v>0.20112485415980411</v>
       </c>
       <c r="L100">
-        <v>0.08293232103982924</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>7.7431538034776384E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>97</v>
       </c>
@@ -4189,13 +4275,13 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>37837.05627714012</v>
+        <v>37837.056277140116</v>
       </c>
       <c r="D101">
-        <v>0.1809759748656642</v>
+        <v>0.18097597486566419</v>
       </c>
       <c r="E101">
-        <v>2674.824401245959</v>
+        <v>2674.8244012459591</v>
       </c>
       <c r="F101">
         <v>1211</v>
@@ -4204,22 +4290,22 @@
         <v>0.2595907859155504</v>
       </c>
       <c r="H101">
-        <v>1511505.292926086</v>
+        <v>1316381.312641399</v>
       </c>
       <c r="I101">
-        <v>6192356.780991728</v>
+        <v>5530789.073034564</v>
       </c>
       <c r="J101">
-        <v>0.3382375731662249</v>
+        <v>0.26595401207217878</v>
       </c>
       <c r="K101">
-        <v>0.1840109864295528</v>
+        <v>0.15902839639108879</v>
       </c>
       <c r="L101">
-        <v>0.07862513808440931</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>6.7202873797651372E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>97</v>
       </c>
@@ -4230,7 +4316,7 @@
         <v>32068.61549588681</v>
       </c>
       <c r="D102">
-        <v>0.1913135477949391</v>
+        <v>0.19131354779493909</v>
       </c>
       <c r="E102">
         <v>2422.271935554958</v>
@@ -4239,25 +4325,25 @@
         <v>2757</v>
       </c>
       <c r="G102">
-        <v>0.3060711751228744</v>
+        <v>0.30607117512287441</v>
       </c>
       <c r="H102">
-        <v>1401333.834385454</v>
+        <v>1245250.4659061341</v>
       </c>
       <c r="I102">
-        <v>4821241.867262911</v>
+        <v>4319769.3881183378</v>
       </c>
       <c r="J102">
-        <v>0.3238256144895312</v>
+        <v>0.23434823502078281</v>
       </c>
       <c r="K102">
-        <v>0.1867453595706793</v>
+        <v>0.18659001050704299</v>
       </c>
       <c r="L102">
-        <v>0.08208605115497987</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>7.6489442063974525E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>97</v>
       </c>
@@ -4265,37 +4351,37 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>19928.40476927462</v>
+        <v>19928.404769274621</v>
       </c>
       <c r="D103">
-        <v>0.112575462386334</v>
+        <v>0.11257546238633399</v>
       </c>
       <c r="E103">
-        <v>2653.47227285254</v>
+        <v>2653.4722728525398</v>
       </c>
       <c r="F103">
         <v>4852</v>
       </c>
       <c r="G103">
-        <v>0.310814625799068</v>
+        <v>0.31081462579906799</v>
       </c>
       <c r="H103">
-        <v>1446569.294562777</v>
+        <v>1344083.660021649</v>
       </c>
       <c r="I103">
-        <v>4651640.817495384</v>
+        <v>4429502.1414780384</v>
       </c>
       <c r="J103">
-        <v>0.3605952414465866</v>
+        <v>0.32032680834535893</v>
       </c>
       <c r="K103">
-        <v>0.1693919046611371</v>
+        <v>0.164643746404769</v>
       </c>
       <c r="L103">
-        <v>0.08751728165713901</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>8.3401823555357052E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>97</v>
       </c>
@@ -4303,37 +4389,37 @@
         <v>12</v>
       </c>
       <c r="C104">
-        <v>21275.3145887517</v>
+        <v>21275.314588751698</v>
       </c>
       <c r="D104">
         <v>0.1329347125167307</v>
       </c>
       <c r="E104">
-        <v>2660.037865413249</v>
+        <v>2660.0378654132492</v>
       </c>
       <c r="F104">
         <v>6469</v>
       </c>
       <c r="G104">
-        <v>0.3488331258055837</v>
+        <v>0.34883312580558368</v>
       </c>
       <c r="H104">
-        <v>1365091.87621729</v>
+        <v>1279276.086749221</v>
       </c>
       <c r="I104">
-        <v>3997726.509902954</v>
+        <v>3805319.4510323992</v>
       </c>
       <c r="J104">
-        <v>0.3959291927040096</v>
+        <v>0.35770138057649281</v>
       </c>
       <c r="K104">
-        <v>0.2148398865036698</v>
+        <v>0.20481618115875019</v>
       </c>
       <c r="L104">
-        <v>0.09312131966548043</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>8.8315503075831414E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>97</v>
       </c>
@@ -4341,7 +4427,7 @@
         <v>13</v>
       </c>
       <c r="C105">
-        <v>20025.24752807928</v>
+        <v>20025.247528079279</v>
       </c>
       <c r="D105">
         <v>0.1202972941807128</v>
@@ -4356,22 +4442,22 @@
         <v>0.3640658928627139</v>
       </c>
       <c r="H105">
-        <v>1471011.407234135</v>
+        <v>1373459.3737387711</v>
       </c>
       <c r="I105">
-        <v>3898558.067336345</v>
+        <v>3701806.785892813</v>
       </c>
       <c r="J105">
-        <v>0.5129240134047883</v>
+        <v>0.4824542659847591</v>
       </c>
       <c r="K105">
-        <v>0.3143151644875613</v>
+        <v>0.30364839717913938</v>
       </c>
       <c r="L105">
-        <v>0.1578593741219347</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>0.1490693772688973</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>98</v>
       </c>
@@ -4379,37 +4465,37 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>396998.6373863031</v>
+        <v>371203.8422372776</v>
       </c>
       <c r="D106">
-        <v>0.4859599087734309</v>
+        <v>0.48462136026536767</v>
       </c>
       <c r="E106">
-        <v>2248.541605276247</v>
+        <v>2178.7833407664421</v>
       </c>
       <c r="F106">
-        <v>862</v>
+        <v>1105</v>
       </c>
       <c r="G106">
-        <v>0.1459058238634826</v>
+        <v>0.1439194587190647</v>
       </c>
       <c r="H106">
-        <v>2129471.140160875</v>
+        <v>2161193.4535927922</v>
       </c>
       <c r="I106">
-        <v>15372067.44650416</v>
+        <v>15843536.6048383</v>
       </c>
       <c r="J106">
-        <v>0.2593659910442848</v>
+        <v>0.2300286090349572</v>
       </c>
       <c r="K106">
-        <v>0.175394819978351</v>
+        <v>0.18034196377139791</v>
       </c>
       <c r="L106">
-        <v>0.06717437690456003</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>6.7887015932854886E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>98</v>
       </c>
@@ -4417,37 +4503,37 @@
         <v>2</v>
       </c>
       <c r="C107">
-        <v>152304.5264885546</v>
+        <v>153187.59988017211</v>
       </c>
       <c r="D107">
-        <v>0.3529283943474501</v>
+        <v>0.3510036497977545</v>
       </c>
       <c r="E107">
-        <v>2150.930077192179</v>
+        <v>2112.067269080776</v>
       </c>
       <c r="F107">
-        <v>1222</v>
+        <v>1309</v>
       </c>
       <c r="G107">
-        <v>0.1914526266414745</v>
+        <v>0.1882144593292582</v>
       </c>
       <c r="H107">
-        <v>2064637.336450341</v>
+        <v>2170342.2700073919</v>
       </c>
       <c r="I107">
-        <v>11500455.36921241</v>
+        <v>11765032.005701561</v>
       </c>
       <c r="J107">
-        <v>0.2744672514821034</v>
+        <v>0.3283610682608184</v>
       </c>
       <c r="K107">
-        <v>0.2426004509198405</v>
+        <v>0.21037862654036041</v>
       </c>
       <c r="L107">
-        <v>0.112447111991869</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>9.5465748109299406E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>98</v>
       </c>
@@ -4455,37 +4541,37 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>98955.72310519466</v>
+        <v>100887.07983422749</v>
       </c>
       <c r="D108">
-        <v>0.2894698725447386</v>
+        <v>0.2944977594774677</v>
       </c>
       <c r="E108">
-        <v>2170.914561163013</v>
+        <v>2100.6322848578388</v>
       </c>
       <c r="F108">
-        <v>4161</v>
+        <v>4606</v>
       </c>
       <c r="G108">
-        <v>0.2260184549384462</v>
+        <v>0.2265283564564729</v>
       </c>
       <c r="H108">
-        <v>2084689.551132632</v>
+        <v>2123753.78063263</v>
       </c>
       <c r="I108">
-        <v>9726226.176003382</v>
+        <v>9646001.163301589</v>
       </c>
       <c r="J108">
-        <v>0.3592325411344113</v>
+        <v>0.37420441582808173</v>
       </c>
       <c r="K108">
-        <v>0.224719898545628</v>
+        <v>0.2091942517928129</v>
       </c>
       <c r="L108">
-        <v>0.09411668083639774</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>8.4562846514071019E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>98</v>
       </c>
@@ -4493,37 +4579,37 @@
         <v>4</v>
       </c>
       <c r="C109">
-        <v>91321.35882153065</v>
+        <v>88592.581955535104</v>
       </c>
       <c r="D109">
-        <v>0.2719106428683755</v>
+        <v>0.26852007218144852</v>
       </c>
       <c r="E109">
-        <v>2465.421787948</v>
+        <v>2433.0164433927171</v>
       </c>
       <c r="F109">
-        <v>4852</v>
+        <v>5195</v>
       </c>
       <c r="G109">
-        <v>0.2550264120822834</v>
+        <v>0.25930820766089657</v>
       </c>
       <c r="H109">
-        <v>2072860.502079779</v>
+        <v>2140874.6611073241</v>
       </c>
       <c r="I109">
-        <v>9094982.911813697</v>
+        <v>9199574.1377401147</v>
       </c>
       <c r="J109">
-        <v>0.3547871884146266</v>
+        <v>0.39906690984902798</v>
       </c>
       <c r="K109">
-        <v>0.23176743558355</v>
+        <v>0.25047871669784633</v>
       </c>
       <c r="L109">
-        <v>0.1164027837802975</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>0.1211570497651643</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>98</v>
       </c>
@@ -4531,37 +4617,37 @@
         <v>5</v>
       </c>
       <c r="C110">
-        <v>62654.37205834586</v>
+        <v>62037.804295632719</v>
       </c>
       <c r="D110">
-        <v>0.2437816698495325</v>
+        <v>0.24519924930541409</v>
       </c>
       <c r="E110">
-        <v>2494.06713275957</v>
+        <v>2504.3009616066729</v>
       </c>
       <c r="F110">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="G110">
-        <v>0.2582522306536015</v>
+        <v>0.2598434257475809</v>
       </c>
       <c r="H110">
-        <v>2106789.084207229</v>
+        <v>2046422.5942460811</v>
       </c>
       <c r="I110">
-        <v>8453306.088481436</v>
+        <v>8318137.3110110173</v>
       </c>
       <c r="J110">
-        <v>0.4485687082382555</v>
+        <v>0.46826610428416998</v>
       </c>
       <c r="K110">
-        <v>0.2565716111751158</v>
+        <v>0.25234003694925278</v>
       </c>
       <c r="L110">
-        <v>0.1218334379262333</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>0.1186919421395187</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>98</v>
       </c>
@@ -4569,37 +4655,37 @@
         <v>6</v>
       </c>
       <c r="C111">
-        <v>66608.04037509041</v>
+        <v>67310.33360902172</v>
       </c>
       <c r="D111">
-        <v>0.2242301604010632</v>
+        <v>0.22490616354200921</v>
       </c>
       <c r="E111">
-        <v>2534.889682325317</v>
+        <v>2517.7380095469989</v>
       </c>
       <c r="F111">
-        <v>4577</v>
+        <v>4789</v>
       </c>
       <c r="G111">
-        <v>0.2659247155161357</v>
+        <v>0.26713570671777181</v>
       </c>
       <c r="H111">
-        <v>2021155.804270155</v>
+        <v>1969302.6331526339</v>
       </c>
       <c r="I111">
-        <v>7954595.876391996</v>
+        <v>7915120.5351695893</v>
       </c>
       <c r="J111">
-        <v>0.3582925867017974</v>
+        <v>0.37106789436221499</v>
       </c>
       <c r="K111">
-        <v>0.1900741765781797</v>
+        <v>0.2090887468133199</v>
       </c>
       <c r="L111">
-        <v>0.1519319440172008</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>0.13927924665745131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>98</v>
       </c>
@@ -4607,37 +4693,37 @@
         <v>7</v>
       </c>
       <c r="C112">
-        <v>69752.67796104886</v>
+        <v>66233.335680510703</v>
       </c>
       <c r="D112">
-        <v>0.2217658998050007</v>
+        <v>0.22973281588471939</v>
       </c>
       <c r="E112">
-        <v>2713.947299342944</v>
+        <v>2623.4904261394172</v>
       </c>
       <c r="F112">
-        <v>676</v>
+        <v>841</v>
       </c>
       <c r="G112">
-        <v>0.3169377212023559</v>
+        <v>0.33098729553384199</v>
       </c>
       <c r="H112">
-        <v>2232815.966631562</v>
+        <v>2215530.0323094889</v>
       </c>
       <c r="I112">
-        <v>6726443.097244034</v>
+        <v>6560123.6706757946</v>
       </c>
       <c r="J112">
-        <v>0.5031551057327417</v>
+        <v>0.55857378525135315</v>
       </c>
       <c r="K112">
-        <v>0.3511480323045377</v>
+        <v>0.34250367153200628</v>
       </c>
       <c r="L112">
-        <v>0.1789598387352246</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>0.1575987925009768</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>98</v>
       </c>
@@ -4645,37 +4731,37 @@
         <v>8</v>
       </c>
       <c r="C113">
-        <v>118416.2134800259</v>
+        <v>112237.63939710009</v>
       </c>
       <c r="D113">
-        <v>0.3101918269539863</v>
+        <v>0.31121789945424239</v>
       </c>
       <c r="E113">
-        <v>2369.171118582364</v>
+        <v>2202.9128697384749</v>
       </c>
       <c r="F113">
-        <v>869</v>
+        <v>1014</v>
       </c>
       <c r="G113">
-        <v>0.2615447989366752</v>
+        <v>0.25915652684882301</v>
       </c>
       <c r="H113">
-        <v>2127089.926679336</v>
+        <v>1979693.7049986001</v>
       </c>
       <c r="I113">
-        <v>8600359.118736893</v>
+        <v>7928842.3777727056</v>
       </c>
       <c r="J113">
-        <v>0.3956387879426873</v>
+        <v>0.30016790464260251</v>
       </c>
       <c r="K113">
-        <v>0.2499831423143993</v>
+        <v>0.18804547723006901</v>
       </c>
       <c r="L113">
-        <v>0.09718678325071628</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>7.4507890481113531E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>98</v>
       </c>
@@ -4683,37 +4769,37 @@
         <v>9</v>
       </c>
       <c r="C114">
-        <v>51044.69544573486</v>
+        <v>51191.26882074435</v>
       </c>
       <c r="D114">
-        <v>0.1843028766289498</v>
+        <v>0.18570129938616631</v>
       </c>
       <c r="E114">
-        <v>2605.09521726168</v>
+        <v>2589.9748746281512</v>
       </c>
       <c r="F114">
-        <v>1121</v>
+        <v>1149</v>
       </c>
       <c r="G114">
-        <v>0.2613476257930745</v>
+        <v>0.26215420796752709</v>
       </c>
       <c r="H114">
-        <v>2113258.706221952</v>
+        <v>2152554.860083994</v>
       </c>
       <c r="I114">
-        <v>8709437.897185456</v>
+        <v>9195170.0901796483</v>
       </c>
       <c r="J114">
-        <v>0.342968329676392</v>
+        <v>0.40004427700444128</v>
       </c>
       <c r="K114">
-        <v>0.1876842217029194</v>
+        <v>0.20313101837375599</v>
       </c>
       <c r="L114">
-        <v>0.1052677624261853</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>0.11018581950854441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>98</v>
       </c>
@@ -4721,37 +4807,37 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>45491.14227175995</v>
+        <v>45756.437027779248</v>
       </c>
       <c r="D115">
-        <v>0.2207966958143628</v>
+        <v>0.2260319621026867</v>
       </c>
       <c r="E115">
-        <v>2369.88382671698</v>
+        <v>2353.6405631416969</v>
       </c>
       <c r="F115">
-        <v>2528</v>
+        <v>2549</v>
       </c>
       <c r="G115">
-        <v>0.2973640255770587</v>
+        <v>0.29876227076476952</v>
       </c>
       <c r="H115">
-        <v>2164228.060909272</v>
+        <v>2013372.1995578229</v>
       </c>
       <c r="I115">
-        <v>7181275.864704206</v>
+        <v>6901347.0203289194</v>
       </c>
       <c r="J115">
-        <v>0.4195016633963792</v>
+        <v>0.40399839016324007</v>
       </c>
       <c r="K115">
-        <v>0.2088135603327538</v>
+        <v>0.23787666440156049</v>
       </c>
       <c r="L115">
-        <v>0.1128664197059723</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>0.10422358738250451</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>98</v>
       </c>
@@ -4759,37 +4845,37 @@
         <v>11</v>
       </c>
       <c r="C116">
-        <v>24525.31740819014</v>
+        <v>24653.4166859877</v>
       </c>
       <c r="D116">
-        <v>0.1207914360951293</v>
+        <v>0.12639121990430061</v>
       </c>
       <c r="E116">
-        <v>2673.281162377014</v>
+        <v>2610.808278754324</v>
       </c>
       <c r="F116">
-        <v>4434</v>
+        <v>4598</v>
       </c>
       <c r="G116">
-        <v>0.331146532316773</v>
+        <v>0.33321004276760879</v>
       </c>
       <c r="H116">
-        <v>2033158.330118294</v>
+        <v>2093754.192577352</v>
       </c>
       <c r="I116">
-        <v>6593325.779898665</v>
+        <v>6743111.7706160787</v>
       </c>
       <c r="J116">
-        <v>0.4474332219444357</v>
+        <v>0.49349362193822738</v>
       </c>
       <c r="K116">
-        <v>0.1911086891572786</v>
+        <v>0.22519777457576901</v>
       </c>
       <c r="L116">
-        <v>0.1173069435016988</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>0.12627349881346911</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>98</v>
       </c>
@@ -4797,37 +4883,37 @@
         <v>12</v>
       </c>
       <c r="C117">
-        <v>28251.87763459337</v>
+        <v>27886.720914089859</v>
       </c>
       <c r="D117">
-        <v>0.1344807487930982</v>
+        <v>0.1386327613470541</v>
       </c>
       <c r="E117">
-        <v>2654.464290318783</v>
+        <v>2573.4448053035071</v>
       </c>
       <c r="F117">
-        <v>5878</v>
+        <v>6457</v>
       </c>
       <c r="G117">
-        <v>0.3450577750615524</v>
+        <v>0.34603639548399051</v>
       </c>
       <c r="H117">
-        <v>2055674.406706436</v>
+        <v>2002752.588207365</v>
       </c>
       <c r="I117">
-        <v>5998115.525431837</v>
+        <v>5959322.7762493482</v>
       </c>
       <c r="J117">
-        <v>0.4945252030761196</v>
+        <v>0.54803985430094848</v>
       </c>
       <c r="K117">
-        <v>0.2249290750105372</v>
+        <v>0.25393156891712898</v>
       </c>
       <c r="L117">
-        <v>0.1209240800024605</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>0.12680232807943551</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4835,37 +4921,44 @@
         <v>13</v>
       </c>
       <c r="C118">
-        <v>26773.45519962273</v>
+        <v>26739.295114886969</v>
       </c>
       <c r="D118">
-        <v>0.1218196410456384</v>
+        <v>0.12591470796319409</v>
       </c>
       <c r="E118">
-        <v>2684.584043169089</v>
+        <v>2641.072861190341</v>
       </c>
       <c r="F118">
-        <v>1935</v>
+        <v>2285</v>
       </c>
       <c r="G118">
-        <v>0.385465824455905</v>
+        <v>0.39020915731373212</v>
       </c>
       <c r="H118">
-        <v>2127540.560688825</v>
+        <v>2139388.1233498892</v>
       </c>
       <c r="I118">
-        <v>5681392.165872145</v>
+        <v>5884289.8967514131</v>
       </c>
       <c r="J118">
-        <v>0.5451128949946211</v>
+        <v>0.61445535230324766</v>
       </c>
       <c r="K118">
-        <v>0.3280429801572317</v>
+        <v>0.3367214958284771</v>
       </c>
       <c r="L118">
-        <v>0.1793837700277894</v>
+        <v>0.1766373294004471</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L118" xr:uid="{E1874940-B451-4799-A107-D1532FF34672}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>